--- a/Documentation/Iteration Plans.xlsx
+++ b/Documentation/Iteration Plans.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Jonathan</t>
-  </si>
-  <si>
-    <t>Uhura</t>
   </si>
   <si>
     <t>Total</t>
@@ -216,6 +213,15 @@
     <t>Create Database with Server (MySQL on UMKC Server)</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Jonathan, </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Tarik</t>
+    </r>
+  </si>
+  <si>
     <t>Create login</t>
   </si>
   <si>
@@ -228,10 +234,10 @@
     <t>Create transactions page</t>
   </si>
   <si>
-    <t>Create alerts page</t>
-  </si>
-  <si>
-    <t>Create reports page</t>
+    <t>Create rules page</t>
+  </si>
+  <si>
+    <t>Create alerts &amp; reports pages</t>
   </si>
   <si>
     <t>Create project and layout view</t>
@@ -249,10 +255,46 @@
     <t>Iteration 3:</t>
   </si>
   <si>
+    <t>Add multi account support</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jonathan, </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>David</t>
+    </r>
+  </si>
+  <si>
     <t>Start: 10/14</t>
   </si>
   <si>
+    <t>Standardize database</t>
+  </si>
+  <si>
+    <t>Database Adminstrator</t>
+  </si>
+  <si>
     <t>End: 10/28</t>
+  </si>
+  <si>
+    <t>Add triggers to database</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Ability to remove alerts</t>
+  </si>
+  <si>
+    <t>Generate reports based on certain time period</t>
+  </si>
+  <si>
+    <t>Handle session timeouts</t>
+  </si>
+  <si>
+    <t>Block SQL injections</t>
   </si>
   <si>
     <t>Iteration 4:</t>
@@ -280,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d-mmm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -322,11 +364,6 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -514,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -780,9 +817,6 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -861,7 +895,7 @@
     <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -875,50 +909,195 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -927,14 +1106,8 @@
     <xf borderId="6" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
@@ -942,98 +1115,25 @@
     <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1292,9 +1392,7 @@
       <c r="P1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
@@ -1309,46 +1407,43 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -1363,7 +1458,6 @@
       <c r="AC2" s="12"/>
       <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" s="15"/>
@@ -1371,36 +1465,34 @@
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
@@ -1415,11 +1507,10 @@
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1429,7 +1520,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
       <c r="I4" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
@@ -1437,8 +1528,8 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
@@ -1453,14 +1544,13 @@
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="33"/>
@@ -1482,7 +1572,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -1497,18 +1587,17 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="43" t="s">
         <v>1</v>
@@ -1529,10 +1618,10 @@
       </c>
       <c r="N6" s="49"/>
       <c r="O6" s="50"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="51">
+      <c r="P6" s="51">
         <v>10.0</v>
       </c>
+      <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -1547,14 +1636,13 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54"/>
@@ -1576,7 +1664,7 @@
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -1591,18 +1679,17 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="43" t="s">
         <v>3</v>
@@ -1623,10 +1710,10 @@
       <c r="O8" s="48">
         <v>1.0</v>
       </c>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51">
+      <c r="P8" s="51">
         <v>1.0</v>
       </c>
+      <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -1641,16 +1728,15 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="43" t="s">
         <v>3</v>
@@ -1671,10 +1757,10 @@
       <c r="O9" s="48">
         <v>2.0</v>
       </c>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51">
+      <c r="P9" s="51">
         <v>2.0</v>
       </c>
+      <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -1689,16 +1775,15 @@
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>3</v>
@@ -1719,10 +1804,10 @@
       <c r="O10" s="48">
         <v>3.0</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51">
+      <c r="P10" s="51">
         <v>3.0</v>
       </c>
+      <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -1737,12 +1822,11 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="40"/>
       <c r="B11" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="56"/>
@@ -1755,7 +1839,7 @@
       <c r="H11" s="55"/>
       <c r="I11" s="39">
         <f>sum(H12:H19)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -1764,7 +1848,7 @@
       <c r="N11" s="39"/>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+      <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -1779,7 +1863,6 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="40"/>
@@ -1787,13 +1870,13 @@
         <v>43728.0</v>
       </c>
       <c r="C12" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="43" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>30</v>
       </c>
       <c r="F12" s="44">
         <v>2.0</v>
@@ -1813,14 +1896,12 @@
         <v>1.0</v>
       </c>
       <c r="O12" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="P12" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="Q12" s="51">
+        <v>2.0</v>
+      </c>
+      <c r="P12" s="51">
         <v>4.0</v>
       </c>
+      <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -1835,7 +1916,6 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="40"/>
@@ -1843,13 +1923,13 @@
         <v>43731.0</v>
       </c>
       <c r="C13" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="43" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>33</v>
       </c>
       <c r="F13" s="44">
         <v>4.0</v>
@@ -1869,14 +1949,12 @@
         <v>1.0</v>
       </c>
       <c r="O13" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="P13" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="Q13" s="51">
+        <v>2.0</v>
+      </c>
+      <c r="P13" s="51">
         <v>4.0</v>
       </c>
+      <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -1891,7 +1969,6 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="40"/>
@@ -1899,13 +1976,13 @@
         <v>43735.0</v>
       </c>
       <c r="C14" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="E14" s="43" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>36</v>
       </c>
       <c r="F14" s="44">
         <v>3.0</v>
@@ -1922,15 +1999,13 @@
         <v>1.0</v>
       </c>
       <c r="N14" s="48">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O14" s="48"/>
-      <c r="P14" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="Q14" s="51">
+      <c r="P14" s="51">
         <v>5.0</v>
       </c>
+      <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -1945,7 +2020,6 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="40"/>
@@ -1953,28 +2027,36 @@
         <v>43745.0</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="44">
         <v>5.0</v>
       </c>
       <c r="G15" s="45"/>
-      <c r="H15" s="59"/>
+      <c r="H15" s="46">
+        <v>4.0</v>
+      </c>
       <c r="I15" s="47"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
+      <c r="M15" s="48">
+        <v>2.0</v>
+      </c>
+      <c r="N15" s="48">
+        <v>2.0</v>
+      </c>
       <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="60"/>
+      <c r="P15" s="51">
+        <v>4.0</v>
+      </c>
+      <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -1989,7 +2071,6 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="40"/>
@@ -1997,10 +2078,10 @@
         <v>43766.0</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="43" t="s">
         <v>1</v>
@@ -2017,8 +2098,8 @@
       <c r="M16" s="49"/>
       <c r="N16" s="49"/>
       <c r="O16" s="50"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -2033,7 +2114,6 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="40"/>
@@ -2041,10 +2121,10 @@
         <v>43770.0</v>
       </c>
       <c r="C17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>1</v>
@@ -2061,8 +2141,8 @@
       <c r="M17" s="49"/>
       <c r="N17" s="49"/>
       <c r="O17" s="50"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -2077,7 +2157,6 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="40"/>
@@ -2085,10 +2164,10 @@
         <v>43791.0</v>
       </c>
       <c r="C18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>41</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>42</v>
       </c>
       <c r="E18" s="43" t="s">
         <v>2</v>
@@ -2105,8 +2184,8 @@
       <c r="M18" s="49"/>
       <c r="N18" s="49"/>
       <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -2121,7 +2200,6 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="61"/>
@@ -2129,13 +2207,13 @@
         <v>43800.0</v>
       </c>
       <c r="C19" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="64" t="s">
-        <v>44</v>
-      </c>
       <c r="E19" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="66">
         <v>3.0</v>
@@ -2149,8 +2227,8 @@
       <c r="M19" s="69"/>
       <c r="N19" s="69"/>
       <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -2165,14 +2243,13 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="73" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>46</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="75"/>
@@ -2194,7 +2271,7 @@
       <c r="N20" s="79"/>
       <c r="O20" s="79"/>
       <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -2209,21 +2286,20 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="80"/>
       <c r="C21" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="82" t="s">
-        <v>48</v>
-      </c>
       <c r="E21" s="83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="84">
         <v>2.0</v>
@@ -2237,14 +2313,16 @@
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="88"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90">
+      <c r="N21" s="89">
+        <v>2.0</v>
+      </c>
+      <c r="O21" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="P21" s="89">
         <v>3.0</v>
       </c>
-      <c r="Q21" s="90">
-        <v>3.0</v>
-      </c>
+      <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -2259,20 +2337,19 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="80"/>
       <c r="C22" s="81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="90" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="84">
@@ -2286,15 +2363,15 @@
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="92">
+      <c r="M22" s="91">
         <v>3.0</v>
       </c>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94">
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93">
         <v>3.0</v>
       </c>
+      <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -2309,24 +2386,23 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="73" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>52</v>
       </c>
       <c r="C23" s="74"/>
       <c r="D23" s="75"/>
       <c r="E23" s="76"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95">
+      <c r="F23" s="94"/>
+      <c r="G23" s="94">
         <f>sum(F24:F28)</f>
         <v>15</v>
       </c>
-      <c r="H23" s="95"/>
+      <c r="H23" s="94"/>
       <c r="I23" s="78">
         <f>sum(H24:H28)</f>
         <v>17</v>
@@ -2334,11 +2410,11 @@
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -2353,40 +2429,39 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="72"/>
-      <c r="B24" s="97"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="99">
+      <c r="F24" s="98">
         <v>1.0</v>
       </c>
-      <c r="G24" s="100"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="82">
         <v>2.0</v>
       </c>
-      <c r="I24" s="101"/>
+      <c r="I24" s="100"/>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
-      <c r="M24" s="102">
+      <c r="M24" s="101">
         <v>2.0</v>
       </c>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="102">
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="101">
         <v>2.0</v>
       </c>
+      <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
@@ -2401,46 +2476,43 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="72"/>
-      <c r="B25" s="97"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="99">
+        <v>35</v>
+      </c>
+      <c r="E25" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="98">
         <v>10.0</v>
       </c>
-      <c r="G25" s="100"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="82">
         <v>12.0</v>
       </c>
-      <c r="I25" s="101"/>
+      <c r="I25" s="100"/>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
-      <c r="M25" s="104">
-        <v>3.0</v>
-      </c>
-      <c r="N25" s="104">
-        <v>3.0</v>
-      </c>
-      <c r="O25" s="104">
-        <v>3.0</v>
-      </c>
-      <c r="P25" s="104">
-        <v>3.0</v>
-      </c>
-      <c r="Q25" s="102">
+      <c r="M25" s="103">
+        <v>4.0</v>
+      </c>
+      <c r="N25" s="103">
+        <v>4.0</v>
+      </c>
+      <c r="O25" s="103">
+        <v>4.0</v>
+      </c>
+      <c r="P25" s="101">
         <v>12.0</v>
       </c>
+      <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -2455,40 +2527,41 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="72"/>
-      <c r="B26" s="97"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="99">
+        <v>47</v>
+      </c>
+      <c r="E26" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="98">
         <v>4.0</v>
       </c>
-      <c r="G26" s="100"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="82">
         <v>3.0</v>
       </c>
-      <c r="I26" s="101"/>
+      <c r="I26" s="100"/>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="104">
+      <c r="M26" s="104"/>
+      <c r="N26" s="103">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="103">
+        <v>2.0</v>
+      </c>
+      <c r="P26" s="101">
         <v>3.0</v>
       </c>
-      <c r="Q26" s="102">
-        <v>3.0</v>
-      </c>
+      <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -2503,26 +2576,25 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="72"/>
-      <c r="B27" s="97"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="81"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="101"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="100"/>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="110"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -2537,26 +2609,25 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="72"/>
-      <c r="B28" s="97"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="81"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="101"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="100"/>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="110"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -2571,22 +2642,21 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="72"/>
-      <c r="B29" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95">
+      <c r="B29" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94">
         <f>sum(F30:F31)</f>
         <v>3</v>
       </c>
-      <c r="H29" s="95"/>
+      <c r="H29" s="94"/>
       <c r="I29" s="78">
         <f>sum(H30)</f>
         <v>5</v>
@@ -2598,7 +2668,7 @@
       <c r="N29" s="78"/>
       <c r="O29" s="78"/>
       <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
+      <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
@@ -2613,24 +2683,23 @@
       <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
     </row>
     <row r="30">
       <c r="A30" s="72"/>
-      <c r="B30" s="114"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="99">
+      <c r="F30" s="98">
         <v>3.0</v>
       </c>
-      <c r="G30" s="100"/>
+      <c r="G30" s="99"/>
       <c r="H30" s="82">
         <v>5.0</v>
       </c>
@@ -2638,15 +2707,15 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="104">
+      <c r="M30" s="103">
         <v>5.0</v>
       </c>
-      <c r="N30" s="105"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="102">
+      <c r="N30" s="104"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="101">
         <v>5.0</v>
       </c>
+      <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
@@ -2661,26 +2730,25 @@
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="116"/>
-      <c r="B31" s="114"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="81"/>
       <c r="D31" s="82"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="109"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="108"/>
       <c r="I31" s="87"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="110"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
@@ -2695,27 +2763,26 @@
       <c r="AC31" s="12"/>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="117" t="s">
-        <v>58</v>
+      <c r="A32" s="116" t="s">
+        <v>57</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="74"/>
       <c r="D32" s="75"/>
       <c r="E32" s="76"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95">
+      <c r="F32" s="94"/>
+      <c r="G32" s="94">
         <f>sum(F33)</f>
         <v>1</v>
       </c>
-      <c r="H32" s="95"/>
+      <c r="H32" s="94"/>
       <c r="I32" s="78">
         <f>sum(H33)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="38"/>
       <c r="K32" s="38"/>
@@ -2724,7 +2791,7 @@
       <c r="N32" s="78"/>
       <c r="O32" s="78"/>
       <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
+      <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
@@ -2739,36 +2806,43 @@
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="117"/>
+      <c r="C33" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="118"/>
-      <c r="C33" s="41" t="s">
-        <v>60</v>
-      </c>
       <c r="D33" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="44">
         <v>1.0</v>
       </c>
-      <c r="G33" s="119"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="120"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="I33" s="119"/>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="123"/>
+      <c r="M33" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="N33" s="121"/>
+      <c r="O33" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="P33" s="122">
+        <v>2.0</v>
+      </c>
+      <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -2783,27 +2857,26 @@
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="117" t="s">
-        <v>61</v>
+      <c r="A34" s="116" t="s">
+        <v>60</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="74"/>
       <c r="D34" s="75"/>
       <c r="E34" s="76"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95">
+      <c r="F34" s="94"/>
+      <c r="G34" s="94">
         <f>sum(F35:F42)</f>
         <v>27</v>
       </c>
-      <c r="H34" s="95"/>
+      <c r="H34" s="94"/>
       <c r="I34" s="78">
         <f>sum(H34:H42)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
@@ -2812,7 +2885,7 @@
       <c r="N34" s="78"/>
       <c r="O34" s="78"/>
       <c r="P34" s="78"/>
-      <c r="Q34" s="78"/>
+      <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -2827,36 +2900,43 @@
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="118"/>
+      <c r="A35" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="117"/>
       <c r="C35" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>62</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>4</v>
       </c>
       <c r="F35" s="44">
         <v>4.0</v>
       </c>
-      <c r="G35" s="124"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="119"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="I35" s="118"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="123"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="O35" s="120">
+        <v>2.0</v>
+      </c>
+      <c r="P35" s="122">
+        <v>3.0</v>
+      </c>
+      <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -2871,11 +2951,10 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="117"/>
-      <c r="B36" s="118"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="41" t="s">
         <v>63</v>
       </c>
@@ -2883,22 +2962,30 @@
         <v>64</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" s="44">
         <v>3.0</v>
       </c>
-      <c r="G36" s="119"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="119"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="I36" s="118"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="123"/>
+      <c r="M36" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="N36" s="121"/>
+      <c r="O36" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="P36" s="122">
+        <v>2.0</v>
+      </c>
+      <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -2913,34 +3000,41 @@
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="117"/>
-      <c r="B37" s="118"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="126" t="s">
+      <c r="D37" s="125" t="s">
         <v>64</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="44">
         <v>5.0</v>
       </c>
-      <c r="G37" s="119"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="119"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="46">
+        <v>5.0</v>
+      </c>
+      <c r="I37" s="118"/>
       <c r="J37" s="38"/>
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="123"/>
+      <c r="M37" s="120">
+        <v>3.0</v>
+      </c>
+      <c r="N37" s="121"/>
+      <c r="O37" s="120">
+        <v>2.0</v>
+      </c>
+      <c r="P37" s="122">
+        <v>5.0</v>
+      </c>
+      <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -2955,34 +3049,39 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="117"/>
-      <c r="B38" s="118"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="126" t="s">
+      <c r="D38" s="125" t="s">
         <v>64</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="44">
         <v>2.0</v>
       </c>
-      <c r="G38" s="119"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="119"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="I38" s="118"/>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="123"/>
+      <c r="M38" s="120">
+        <v>2.0</v>
+      </c>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="122">
+        <v>2.0</v>
+      </c>
+      <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -2997,34 +3096,41 @@
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="117"/>
-      <c r="B39" s="118"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="126" t="s">
+      <c r="D39" s="125" t="s">
         <v>64</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="44">
         <v>2.0</v>
       </c>
-      <c r="G39" s="119"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="119"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="I39" s="118"/>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
-      <c r="M39" s="121"/>
-      <c r="N39" s="122"/>
-      <c r="O39" s="122"/>
-      <c r="P39" s="122"/>
-      <c r="Q39" s="123"/>
+      <c r="M39" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="N39" s="121"/>
+      <c r="O39" s="120">
+        <v>3.0</v>
+      </c>
+      <c r="P39" s="122">
+        <v>4.0</v>
+      </c>
+      <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -3039,34 +3145,41 @@
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="117"/>
-      <c r="B40" s="118"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="126" t="s">
+      <c r="D40" s="125" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="44">
         <v>3.0</v>
       </c>
-      <c r="G40" s="119"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="119"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="46">
+        <v>3.0</v>
+      </c>
+      <c r="I40" s="118"/>
       <c r="J40" s="38"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
-      <c r="M40" s="121"/>
-      <c r="N40" s="122"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="122"/>
-      <c r="Q40" s="123"/>
+      <c r="M40" s="120">
+        <v>2.0</v>
+      </c>
+      <c r="N40" s="121"/>
+      <c r="O40" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="P40" s="122">
+        <v>3.0</v>
+      </c>
+      <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
@@ -3081,34 +3194,41 @@
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="117"/>
-      <c r="B41" s="118"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="126" t="s">
+      <c r="D41" s="125" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" s="44">
         <v>2.0</v>
       </c>
-      <c r="G41" s="119"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="119"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="I41" s="118"/>
       <c r="J41" s="38"/>
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="122"/>
-      <c r="O41" s="122"/>
-      <c r="P41" s="122"/>
-      <c r="Q41" s="123"/>
+      <c r="M41" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="N41" s="121"/>
+      <c r="O41" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="P41" s="122">
+        <v>2.0</v>
+      </c>
+      <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -3123,34 +3243,41 @@
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="117"/>
-      <c r="B42" s="118"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="117"/>
       <c r="C42" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="126" t="s">
+      <c r="D42" s="125" t="s">
         <v>64</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" s="44">
         <v>6.0</v>
       </c>
-      <c r="G42" s="119"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="119"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="I42" s="118"/>
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="123"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="120">
+        <v>3.0</v>
+      </c>
+      <c r="O42" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="P42" s="122">
+        <v>4.0</v>
+      </c>
+      <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
@@ -3165,25 +3292,24 @@
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="127"/>
+      <c r="A43" s="126"/>
       <c r="B43" s="73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="74"/>
       <c r="D43" s="75"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95">
+      <c r="F43" s="94"/>
+      <c r="G43" s="94">
         <f>sum(F44:F46)</f>
         <v>7</v>
       </c>
-      <c r="H43" s="95"/>
+      <c r="H43" s="94"/>
       <c r="I43" s="78">
-        <f>sum(H44)</f>
-        <v>0</v>
+        <f>sum(H44:H46)</f>
+        <v>6</v>
       </c>
       <c r="J43" s="38"/>
       <c r="K43" s="38"/>
@@ -3192,7 +3318,7 @@
       <c r="N43" s="78"/>
       <c r="O43" s="78"/>
       <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
+      <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -3207,16 +3333,15 @@
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="127"/>
-      <c r="B44" s="118"/>
+      <c r="A44" s="126"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="43" t="s">
         <v>1</v>
@@ -3224,17 +3349,23 @@
       <c r="F44" s="44">
         <v>3.0</v>
       </c>
-      <c r="G44" s="119"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="120"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="46">
+        <v>3.0</v>
+      </c>
+      <c r="I44" s="119"/>
       <c r="J44" s="38"/>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="123"/>
+      <c r="M44" s="120">
+        <v>3.0</v>
+      </c>
+      <c r="N44" s="121"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="122">
+        <v>3.0</v>
+      </c>
+      <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
@@ -3249,34 +3380,39 @@
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="127"/>
-      <c r="B45" s="118"/>
+      <c r="A45" s="126"/>
+      <c r="B45" s="117"/>
       <c r="C45" s="41" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="44">
         <v>2.0</v>
       </c>
-      <c r="G45" s="119"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="120"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I45" s="119"/>
       <c r="J45" s="38"/>
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
-      <c r="M45" s="122"/>
-      <c r="N45" s="122"/>
-      <c r="O45" s="122"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="123"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="O45" s="121"/>
+      <c r="P45" s="122">
+        <v>1.0</v>
+      </c>
+      <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
@@ -3291,34 +3427,41 @@
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="128"/>
-      <c r="B46" s="118"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="41" t="s">
         <v>72</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46" s="44">
         <v>2.0</v>
       </c>
-      <c r="G46" s="119"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="120"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="I46" s="119"/>
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="122"/>
-      <c r="P46" s="121"/>
-      <c r="Q46" s="123"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="O46" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="P46" s="122">
+        <v>2.0</v>
+      </c>
+      <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
@@ -3333,36 +3476,35 @@
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
     </row>
     <row r="47">
       <c r="A47" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B47" s="73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="74"/>
       <c r="D47" s="75"/>
       <c r="E47" s="76"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95">
-        <f>sum(F48)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="95"/>
-      <c r="I47" s="78">
-        <f>sum(H48)</f>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94">
+        <f>sum(F48:F49)</f>
+        <v>6</v>
+      </c>
+      <c r="H47" s="128"/>
+      <c r="I47" s="79">
+        <f>sum(H48:H49)</f>
         <v>0</v>
       </c>
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="78"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
@@ -3377,28 +3519,33 @@
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="72"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="89"/>
+      <c r="D48" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="G48" s="130"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="132"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
-      <c r="M48" s="133"/>
-      <c r="N48" s="133"/>
-      <c r="O48" s="133"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
       <c r="P48" s="133"/>
-      <c r="Q48" s="134"/>
+      <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -3413,36 +3560,35 @@
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
     </row>
     <row r="49">
       <c r="A49" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="135"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95">
-        <f>sum(F50)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="95"/>
-      <c r="I49" s="78">
-        <f>sum(H50)</f>
-        <v>0</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B49" s="80"/>
+      <c r="C49" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="G49" s="130"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="92"/>
       <c r="J49" s="38"/>
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
+      <c r="M49" s="135"/>
+      <c r="N49" s="135"/>
+      <c r="O49" s="135"/>
+      <c r="P49" s="136"/>
+      <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
@@ -3457,28 +3603,35 @@
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
     </row>
     <row r="50">
       <c r="A50" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94">
+        <f>sum(F51:F56)</f>
+        <v>13</v>
+      </c>
+      <c r="H50" s="139"/>
+      <c r="I50" s="95">
+        <f>sum(H51)</f>
+        <v>0</v>
+      </c>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
-      <c r="M50" s="115"/>
-      <c r="N50" s="115"/>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
-      <c r="Q50" s="102"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
@@ -3493,34 +3646,35 @@
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="137"/>
-      <c r="B51" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95">
-        <f>sum(F52)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="95"/>
-      <c r="I51" s="78">
-        <f>sum(H52)</f>
-        <v>0</v>
-      </c>
+      <c r="A51" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="113"/>
+      <c r="C51" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G51" s="99"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="87"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="78"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="104"/>
+      <c r="P51" s="101"/>
+      <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
@@ -3535,26 +3689,33 @@
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="138"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="143"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="93"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="G52" s="99"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="87"/>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
       <c r="L52" s="38"/>
-      <c r="M52" s="145"/>
-      <c r="N52" s="145"/>
-      <c r="O52" s="146"/>
-      <c r="P52" s="146"/>
-      <c r="Q52" s="147"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="104"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
@@ -3569,72 +3730,74 @@
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="148" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="149"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="151"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95">
-        <f>sum(F54)</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="95"/>
-      <c r="I53" s="78">
-        <f>sum(H54)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="78"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G53" s="99"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="101"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="118"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="154"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="120"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="G54" s="99"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="87"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
       <c r="L54" s="38"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="122"/>
-      <c r="O54" s="122"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="123"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="101"/>
+      <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
@@ -3649,36 +3812,33 @@
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
     </row>
     <row r="55">
-      <c r="A55" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95">
-        <f>sum(F56)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="95"/>
-      <c r="I55" s="78">
-        <f>sum(H56)</f>
-        <v>0</v>
-      </c>
+      <c r="A55" s="72"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="84">
+        <v>5.0</v>
+      </c>
+      <c r="G55" s="99"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="87"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
       <c r="L55" s="38"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="78"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
@@ -3693,28 +3853,25 @@
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="155"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="161"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="87"/>
       <c r="J56" s="38"/>
       <c r="K56" s="38"/>
       <c r="L56" s="38"/>
-      <c r="M56" s="162"/>
-      <c r="N56" s="162"/>
-      <c r="O56" s="162"/>
-      <c r="P56" s="163"/>
-      <c r="Q56" s="164"/>
+      <c r="M56" s="114"/>
+      <c r="N56" s="114"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="101"/>
+      <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
@@ -3729,34 +3886,33 @@
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="127"/>
-      <c r="B57" s="148" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="165"/>
-      <c r="D57" s="166"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95">
-        <f>sum(G58)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="95"/>
-      <c r="I57" s="78">
-        <f>sum(H58)</f>
+      <c r="A57" s="143"/>
+      <c r="B57" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="145"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128">
+        <f>sum(F58:F60)</f>
+        <v>7</v>
+      </c>
+      <c r="H57" s="128"/>
+      <c r="I57" s="79">
+        <f>sum(H60)</f>
         <v>0</v>
       </c>
       <c r="J57" s="38"/>
       <c r="K57" s="38"/>
       <c r="L57" s="38"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="78"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
@@ -3771,26 +3927,33 @@
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="127"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="120"/>
+      <c r="A58" s="148"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="150" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="153">
+        <v>3.0</v>
+      </c>
+      <c r="G58" s="154"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="132"/>
       <c r="J58" s="38"/>
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
-      <c r="M58" s="168"/>
-      <c r="N58" s="122"/>
-      <c r="O58" s="122"/>
-      <c r="P58" s="121"/>
-      <c r="Q58" s="123"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="133"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="133"/>
+      <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
@@ -3805,36 +3968,33 @@
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
     </row>
     <row r="59">
-      <c r="A59" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="135"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95">
-        <f>sum(G60)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="95"/>
-      <c r="I59" s="78">
-        <f>sum(H60)</f>
-        <v>0</v>
-      </c>
+      <c r="A59" s="148"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G59" s="99"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="87"/>
       <c r="J59" s="38"/>
       <c r="K59" s="38"/>
       <c r="L59" s="38"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="109"/>
+      <c r="O59" s="102"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
@@ -3849,28 +4009,33 @@
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
     </row>
     <row r="60">
-      <c r="A60" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="89"/>
+      <c r="A60" s="156"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="160">
+        <v>2.0</v>
+      </c>
+      <c r="G60" s="161"/>
+      <c r="H60" s="162"/>
+      <c r="I60" s="92"/>
       <c r="J60" s="38"/>
       <c r="K60" s="38"/>
       <c r="L60" s="38"/>
-      <c r="M60" s="169"/>
-      <c r="N60" s="133"/>
-      <c r="O60" s="170"/>
-      <c r="P60" s="170"/>
-      <c r="Q60" s="134"/>
+      <c r="M60" s="136"/>
+      <c r="N60" s="136"/>
+      <c r="O60" s="135"/>
+      <c r="P60" s="136"/>
+      <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
@@ -3885,72 +4050,70 @@
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
-      <c r="AF60" s="5"/>
     </row>
     <row r="61">
-      <c r="A61" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="95">
-        <f>sum(G62)</f>
+      <c r="A61" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="163" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="164"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="166"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="139">
+        <f>sum(F62)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="95"/>
-      <c r="I61" s="78">
+      <c r="H61" s="139"/>
+      <c r="I61" s="95">
         <f>sum(H62)</f>
         <v>0</v>
       </c>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="78"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
-      <c r="AF61" s="5"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="95"/>
+      <c r="N61" s="95"/>
+      <c r="O61" s="95"/>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
     </row>
     <row r="62">
-      <c r="A62" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="114"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="87"/>
+      <c r="A62" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="117"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="170"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="119"/>
       <c r="J62" s="38"/>
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
-      <c r="M62" s="115"/>
-      <c r="N62" s="105"/>
-      <c r="O62" s="115"/>
-      <c r="P62" s="105"/>
-      <c r="Q62" s="102"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="121"/>
+      <c r="O62" s="121"/>
+      <c r="P62" s="171"/>
+      <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
@@ -3965,22 +4128,23 @@
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
     </row>
     <row r="63">
-      <c r="A63" s="137"/>
+      <c r="A63" s="116" t="s">
+        <v>88</v>
+      </c>
       <c r="B63" s="73" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C63" s="74"/>
       <c r="D63" s="75"/>
       <c r="E63" s="76"/>
-      <c r="F63" s="95"/>
-      <c r="G63" s="95">
-        <f>sum(G64)</f>
+      <c r="F63" s="94"/>
+      <c r="G63" s="94">
+        <f>sum(F64)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="95"/>
+      <c r="H63" s="94"/>
       <c r="I63" s="78">
         <f>sum(H64)</f>
         <v>0</v>
@@ -3992,7 +4156,7 @@
       <c r="N63" s="78"/>
       <c r="O63" s="78"/>
       <c r="P63" s="78"/>
-      <c r="Q63" s="78"/>
+      <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
@@ -4007,26 +4171,27 @@
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
-      <c r="AF63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="138"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="142"/>
-      <c r="F64" s="143"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="142"/>
-      <c r="I64" s="93"/>
+      <c r="A64" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="172"/>
+      <c r="C64" s="173"/>
+      <c r="D64" s="174"/>
+      <c r="E64" s="175"/>
+      <c r="F64" s="176"/>
+      <c r="G64" s="177"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="178"/>
       <c r="J64" s="38"/>
       <c r="K64" s="38"/>
       <c r="L64" s="38"/>
-      <c r="M64" s="171"/>
-      <c r="N64" s="146"/>
-      <c r="O64" s="145"/>
-      <c r="P64" s="146"/>
-      <c r="Q64" s="147"/>
+      <c r="M64" s="179"/>
+      <c r="N64" s="179"/>
+      <c r="O64" s="179"/>
+      <c r="P64" s="180"/>
+      <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
@@ -4041,55 +4206,33 @@
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="173"/>
-      <c r="C65" s="174"/>
-      <c r="D65" s="174"/>
-      <c r="E65" s="175"/>
-      <c r="F65" s="176">
-        <f t="shared" ref="F65:I65" si="1">sum(F5:F64)</f>
-        <v>99.5</v>
-      </c>
-      <c r="G65" s="176">
-        <f t="shared" si="1"/>
-        <v>99.5</v>
-      </c>
-      <c r="H65" s="176">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="I65" s="176">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="177">
-        <f t="shared" ref="M65:Q65" si="2">SUM(M5:M64)</f>
-        <v>26</v>
-      </c>
-      <c r="N65" s="177">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="O65" s="177">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="P65" s="177">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="Q65" s="177">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
+      <c r="A65" s="126"/>
+      <c r="B65" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="181"/>
+      <c r="D65" s="182"/>
+      <c r="E65" s="183"/>
+      <c r="F65" s="94"/>
+      <c r="G65" s="94">
+        <f>sum(G66)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="94"/>
+      <c r="I65" s="78">
+        <f>sum(H66)</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
@@ -4104,109 +4247,427 @@
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
-      <c r="AF65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="178"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
+      <c r="A66" s="126"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="168"/>
+      <c r="E66" s="169"/>
+      <c r="F66" s="170"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="119"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="120"/>
+      <c r="N66" s="121"/>
+      <c r="O66" s="121"/>
+      <c r="P66" s="171"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
-      <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
+      <c r="A67" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="137"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="138"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="94">
+        <f>sum(G68)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="94"/>
+      <c r="I67" s="78">
+        <f>sum(H68)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
     </row>
     <row r="68">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
+      <c r="A68" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="80"/>
+      <c r="C68" s="184"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="141"/>
+      <c r="F68" s="142"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="185"/>
+      <c r="N68" s="186"/>
+      <c r="O68" s="187"/>
+      <c r="P68" s="133"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="94">
+        <f>sum(G70)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="94"/>
+      <c r="I69" s="78">
+        <f>sum(H70)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="78"/>
+      <c r="N69" s="78"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="113"/>
+      <c r="C70" s="184"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="141"/>
+      <c r="F70" s="142"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="87"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="114"/>
+      <c r="N70" s="104"/>
+      <c r="O70" s="114"/>
+      <c r="P70" s="101"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="143"/>
+      <c r="B71" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="74"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94">
+        <f>sum(G72)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="94"/>
+      <c r="I71" s="78">
+        <f>sum(H72)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="78"/>
+      <c r="N71" s="78"/>
+      <c r="O71" s="78"/>
+      <c r="P71" s="78"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="188"/>
+      <c r="B72" s="189"/>
+      <c r="C72" s="190"/>
+      <c r="D72" s="191"/>
+      <c r="E72" s="162"/>
+      <c r="F72" s="134"/>
+      <c r="G72" s="161"/>
+      <c r="H72" s="162"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="192"/>
+      <c r="N72" s="193"/>
+      <c r="O72" s="194"/>
+      <c r="P72" s="136"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="196"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="198"/>
+      <c r="F73" s="199">
+        <f t="shared" ref="F73:I73" si="1">sum(F5:F72)</f>
+        <v>125.5</v>
+      </c>
+      <c r="G73" s="199">
+        <f t="shared" si="1"/>
+        <v>125.5</v>
+      </c>
+      <c r="H73" s="199">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="I73" s="199">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="200">
+        <f t="shared" ref="M73:P73" si="2">SUM(M5:M72)</f>
+        <v>43</v>
+      </c>
+      <c r="N73" s="200">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="O73" s="200">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P73" s="200">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="201"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="201"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Documentation/Iteration Plans.xlsx
+++ b/Documentation/Iteration Plans.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\CS451\CS451 Commerce Bank Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BADE3A7-96B9-409C-830A-30D036361205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -43,14 +60,8 @@
     <t>Actual</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">(primary owner) 
-</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>(secondary owners)</t>
-    </r>
+    <t>(primary owner) 
+(secondary owners)</t>
   </si>
   <si>
     <t>By Task</t>
@@ -108,13 +119,7 @@
     <t>Project Charter</t>
   </si>
   <si>
-    <r>
-      <t>David</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>, Jonathan</t>
-    </r>
+    <t>David, Jonathan</t>
   </si>
   <si>
     <t>Requirements Document</t>
@@ -213,13 +218,7 @@
     <t>Create Database with Server (MySQL on UMKC Server)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Jonathan, </t>
-    </r>
-    <r>
-      <rPr/>
-      <t>Tarik</t>
-    </r>
+    <t>Jonathan, Tarik</t>
   </si>
   <si>
     <t>Create login</t>
@@ -252,22 +251,22 @@
     <t>System check</t>
   </si>
   <si>
+    <t>Testers</t>
+  </si>
+  <si>
     <t>Iteration 3:</t>
   </si>
   <si>
+    <t>Start: 10/14</t>
+  </si>
+  <si>
     <t>Add multi account support</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Jonathan, </t>
-    </r>
-    <r>
-      <rPr/>
-      <t>David</t>
-    </r>
-  </si>
-  <si>
-    <t>Start: 10/14</t>
+    <t>Jonathan, David</t>
+  </si>
+  <si>
+    <t>End: 10/28</t>
   </si>
   <si>
     <t>Standardize database</t>
@@ -276,7 +275,7 @@
     <t>Database Adminstrator</t>
   </si>
   <si>
-    <t>End: 10/28</t>
+    <t>Tarik, Jonathan</t>
   </si>
   <si>
     <t>Add triggers to database</t>
@@ -303,7 +302,22 @@
     <t>Start: 10/28</t>
   </si>
   <si>
+    <t>Add multi-account support</t>
+  </si>
+  <si>
     <t>End: 11/11</t>
+  </si>
+  <si>
+    <t>Database API</t>
+  </si>
+  <si>
+    <t>Add database data to reports export</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>Testers, Developers</t>
   </si>
   <si>
     <t>Iteration 5:</t>
@@ -318,65 +332,71 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-mmm"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF800000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -386,7 +406,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -420,27 +440,43 @@
     </fill>
   </fills>
   <borders count="16">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -452,27 +488,39 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -481,16 +529,23 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -500,17 +555,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -525,11 +583,16 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -538,618 +601,630 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="213">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="13" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1339,33 +1414,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.86"/>
-    <col customWidth="1" min="3" max="3" width="53.57"/>
-    <col customWidth="1" min="4" max="4" width="39.29"/>
-    <col customWidth="1" min="5" max="5" width="22.14"/>
-    <col customWidth="1" min="8" max="8" width="11.86"/>
-    <col customWidth="1" min="9" max="9" width="11.0"/>
-    <col customWidth="1" min="10" max="10" width="2.14"/>
-    <col customWidth="1" min="11" max="12" width="2.57"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="12" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1486,7 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1459,7 +1537,7 @@
       <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
     </row>
-    <row r="3" ht="32.25" customHeight="1">
+    <row r="3" spans="1:31" ht="32.25" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1508,7 +1586,7 @@
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1">
+    <row r="4" spans="1:31" ht="22.5" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
@@ -1545,7 +1623,7 @@
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:31">
       <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
@@ -1557,12 +1635,12 @@
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35">
-        <f>sum(F6)</f>
+        <f>SUM(F6)</f>
         <v>10</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="36">
-        <f>sum(H6)</f>
+        <f>SUM(H6)</f>
         <v>10</v>
       </c>
       <c r="J5" s="37"/>
@@ -1588,7 +1666,7 @@
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:31">
       <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
@@ -1603,23 +1681,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="44">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="46">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
       <c r="M6" s="48">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N6" s="49"/>
       <c r="O6" s="50"/>
       <c r="P6" s="51">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -1637,7 +1715,7 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:31">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
@@ -1649,12 +1727,12 @@
       <c r="E7" s="54"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55">
-        <f>sum(F8:F10)</f>
+        <f>SUM(F8:F10)</f>
         <v>7</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="39">
-        <f>sum(H8:H10)</f>
+        <f>SUM(H8:H10)</f>
         <v>6</v>
       </c>
       <c r="J7" s="38"/>
@@ -1680,7 +1758,7 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:31">
       <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
@@ -1695,11 +1773,11 @@
         <v>3</v>
       </c>
       <c r="F8" s="44">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="46">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="38"/>
@@ -1708,10 +1786,10 @@
       <c r="M8" s="49"/>
       <c r="N8" s="49"/>
       <c r="O8" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="51">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -1729,7 +1807,7 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:31">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="41" t="s">
@@ -1742,11 +1820,11 @@
         <v>3</v>
       </c>
       <c r="F9" s="44">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="46">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="47"/>
       <c r="J9" s="38"/>
@@ -1755,10 +1833,10 @@
       <c r="M9" s="49"/>
       <c r="N9" s="49"/>
       <c r="O9" s="48">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="51">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1776,7 +1854,7 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:31">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="41" t="s">
@@ -1789,11 +1867,11 @@
         <v>3</v>
       </c>
       <c r="F10" s="44">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="46">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="47"/>
       <c r="J10" s="38"/>
@@ -1802,10 +1880,10 @@
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="48">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P10" s="51">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1823,7 +1901,7 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:31">
       <c r="A11" s="40"/>
       <c r="B11" s="52" t="s">
         <v>27</v>
@@ -1833,13 +1911,13 @@
       <c r="E11" s="57"/>
       <c r="F11" s="55"/>
       <c r="G11" s="55">
-        <f>sum(F12:F19)</f>
+        <f>SUM(F12:F19)</f>
         <v>24.5</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="39">
-        <f>sum(H12:H19)</f>
-        <v>17</v>
+        <f>SUM(H12:H19)</f>
+        <v>18</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -1864,10 +1942,10 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:31">
       <c r="A12" s="40"/>
       <c r="B12" s="58">
-        <v>43728.0</v>
+        <v>43728</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>28</v>
@@ -1879,27 +1957,27 @@
         <v>29</v>
       </c>
       <c r="F12" s="44">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="46">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="47"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="48">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P12" s="51">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -1917,10 +1995,10 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:31">
       <c r="A13" s="40"/>
       <c r="B13" s="58">
-        <v>43731.0</v>
+        <v>43731</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>30</v>
@@ -1932,27 +2010,27 @@
         <v>32</v>
       </c>
       <c r="F13" s="44">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="46">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="47"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="48">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P13" s="51">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -1970,10 +2048,10 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:31">
       <c r="A14" s="40"/>
       <c r="B14" s="58">
-        <v>43735.0</v>
+        <v>43735</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>33</v>
@@ -1985,25 +2063,25 @@
         <v>35</v>
       </c>
       <c r="F14" s="44">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="48">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O14" s="48"/>
       <c r="P14" s="51">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -2021,10 +2099,10 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:31">
       <c r="A15" s="40"/>
       <c r="B15" s="58">
-        <v>43745.0</v>
+        <v>43745</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>36</v>
@@ -2036,25 +2114,25 @@
         <v>35</v>
       </c>
       <c r="F15" s="44">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="46">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="47"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="48">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="48">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="50"/>
       <c r="P15" s="51">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -2072,10 +2150,10 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:31">
       <c r="A16" s="40"/>
       <c r="B16" s="58">
-        <v>43766.0</v>
+        <v>43766</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>37</v>
@@ -2090,15 +2168,21 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="45"/>
-      <c r="H16" s="59"/>
+      <c r="H16" s="46">
+        <v>1</v>
+      </c>
       <c r="I16" s="47"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
-      <c r="M16" s="49"/>
+      <c r="M16" s="48">
+        <v>1</v>
+      </c>
       <c r="N16" s="49"/>
       <c r="O16" s="50"/>
-      <c r="P16" s="60"/>
+      <c r="P16" s="51">
+        <v>1</v>
+      </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -2115,10 +2199,10 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:31">
       <c r="A17" s="40"/>
       <c r="B17" s="58">
-        <v>43770.0</v>
+        <v>43770</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>38</v>
@@ -2130,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="44">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="59"/>
@@ -2158,10 +2242,10 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:31">
       <c r="A18" s="40"/>
       <c r="B18" s="58">
-        <v>43791.0</v>
+        <v>43791</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>40</v>
@@ -2173,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="44">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="59"/>
@@ -2201,10 +2285,10 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:31">
       <c r="A19" s="61"/>
       <c r="B19" s="62">
-        <v>43800.0</v>
+        <v>43800</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>42</v>
@@ -2216,7 +2300,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="66">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="67"/>
@@ -2244,7 +2328,7 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:31">
       <c r="A20" s="72" t="s">
         <v>44</v>
       </c>
@@ -2256,12 +2340,12 @@
       <c r="E20" s="76"/>
       <c r="F20" s="77"/>
       <c r="G20" s="77">
-        <f>sum(F21:F22)</f>
+        <f>SUM(F21:F22)</f>
         <v>5</v>
       </c>
       <c r="H20" s="77"/>
       <c r="I20" s="78">
-        <f>sum(H21:H22)</f>
+        <f>SUM(H21:H22)</f>
         <v>6</v>
       </c>
       <c r="J20" s="38"/>
@@ -2287,7 +2371,7 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:31">
       <c r="A21" s="72" t="s">
         <v>17</v>
       </c>
@@ -2302,11 +2386,11 @@
         <v>3</v>
       </c>
       <c r="F21" s="84">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="85"/>
       <c r="H21" s="86">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="87"/>
       <c r="J21" s="38"/>
@@ -2314,13 +2398,13 @@
       <c r="L21" s="38"/>
       <c r="M21" s="88"/>
       <c r="N21" s="89">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="89">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="89">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -2338,7 +2422,7 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:31">
       <c r="A22" s="72" t="s">
         <v>48</v>
       </c>
@@ -2353,23 +2437,23 @@
         <v>1</v>
       </c>
       <c r="F22" s="84">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="85"/>
       <c r="H22" s="86">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="87"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="91">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="92"/>
       <c r="O22" s="92"/>
       <c r="P22" s="93">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -2387,7 +2471,7 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:31">
       <c r="A23" s="72" t="s">
         <v>50</v>
       </c>
@@ -2399,12 +2483,12 @@
       <c r="E23" s="76"/>
       <c r="F23" s="94"/>
       <c r="G23" s="94">
-        <f>sum(F24:F28)</f>
+        <f>SUM(F24:F28)</f>
         <v>15</v>
       </c>
       <c r="H23" s="94"/>
       <c r="I23" s="78">
-        <f>sum(H24:H28)</f>
+        <f>SUM(H24:H28)</f>
         <v>17</v>
       </c>
       <c r="J23" s="38"/>
@@ -2430,7 +2514,7 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:31">
       <c r="A24" s="72"/>
       <c r="B24" s="96"/>
       <c r="C24" s="81" t="s">
@@ -2443,23 +2527,23 @@
         <v>1</v>
       </c>
       <c r="F24" s="98">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="99"/>
       <c r="H24" s="82">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="100"/>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="101">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="102"/>
       <c r="O24" s="102"/>
       <c r="P24" s="101">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -2477,7 +2561,7 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:31">
       <c r="A25" s="72"/>
       <c r="B25" s="96"/>
       <c r="C25" s="81" t="s">
@@ -2490,27 +2574,27 @@
         <v>35</v>
       </c>
       <c r="F25" s="98">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G25" s="99"/>
       <c r="H25" s="82">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I25" s="100"/>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="103">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N25" s="103">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O25" s="103">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P25" s="101">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -2528,7 +2612,7 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:31">
       <c r="A26" s="72"/>
       <c r="B26" s="96"/>
       <c r="C26" s="81" t="s">
@@ -2541,11 +2625,11 @@
         <v>35</v>
       </c>
       <c r="F26" s="98">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="99"/>
       <c r="H26" s="82">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="100"/>
       <c r="J26" s="38"/>
@@ -2553,13 +2637,13 @@
       <c r="L26" s="38"/>
       <c r="M26" s="104"/>
       <c r="N26" s="103">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="103">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="101">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -2577,7 +2661,7 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:31">
       <c r="A27" s="72"/>
       <c r="B27" s="96"/>
       <c r="C27" s="81"/>
@@ -2610,7 +2694,7 @@
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:31">
       <c r="A28" s="72"/>
       <c r="B28" s="96"/>
       <c r="C28" s="81"/>
@@ -2643,7 +2727,7 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:31">
       <c r="A29" s="72"/>
       <c r="B29" s="110" t="s">
         <v>55</v>
@@ -2653,12 +2737,12 @@
       <c r="E29" s="112"/>
       <c r="F29" s="94"/>
       <c r="G29" s="94">
-        <f>sum(F30:F31)</f>
+        <f>SUM(F30:F31)</f>
         <v>3</v>
       </c>
       <c r="H29" s="94"/>
       <c r="I29" s="78">
-        <f>sum(H30)</f>
+        <f>SUM(H30)</f>
         <v>5</v>
       </c>
       <c r="J29" s="28"/>
@@ -2684,7 +2768,7 @@
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:31">
       <c r="A30" s="72"/>
       <c r="B30" s="113"/>
       <c r="C30" s="81" t="s">
@@ -2697,23 +2781,23 @@
         <v>1</v>
       </c>
       <c r="F30" s="98">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="82">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="87"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
       <c r="M30" s="103">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N30" s="104"/>
       <c r="O30" s="114"/>
       <c r="P30" s="101">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
@@ -2731,7 +2815,7 @@
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:31">
       <c r="A31" s="115"/>
       <c r="B31" s="113"/>
       <c r="C31" s="81"/>
@@ -2764,7 +2848,7 @@
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:31">
       <c r="A32" s="116" t="s">
         <v>57</v>
       </c>
@@ -2776,12 +2860,12 @@
       <c r="E32" s="76"/>
       <c r="F32" s="94"/>
       <c r="G32" s="94">
-        <f>sum(F33)</f>
+        <f>SUM(F33)</f>
         <v>1</v>
       </c>
       <c r="H32" s="94"/>
       <c r="I32" s="78">
-        <f>sum(H33)</f>
+        <f>SUM(H33)</f>
         <v>2</v>
       </c>
       <c r="J32" s="38"/>
@@ -2807,7 +2891,7 @@
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:31">
       <c r="A33" s="116" t="s">
         <v>58</v>
       </c>
@@ -2822,25 +2906,25 @@
         <v>32</v>
       </c>
       <c r="F33" s="44">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="118"/>
       <c r="H33" s="46">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="119"/>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="121"/>
       <c r="O33" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="122">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -2858,7 +2942,7 @@
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:31">
       <c r="A34" s="116" t="s">
         <v>60</v>
       </c>
@@ -2870,12 +2954,12 @@
       <c r="E34" s="76"/>
       <c r="F34" s="94"/>
       <c r="G34" s="94">
-        <f>sum(F35:F42)</f>
+        <f>SUM(F35:F42)</f>
         <v>27</v>
       </c>
       <c r="H34" s="94"/>
       <c r="I34" s="78">
-        <f>sum(H34:H42)</f>
+        <f>SUM(H34:H42)</f>
         <v>25</v>
       </c>
       <c r="J34" s="38"/>
@@ -2901,7 +2985,7 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:31">
       <c r="A35" s="116" t="s">
         <v>50</v>
       </c>
@@ -2916,11 +3000,11 @@
         <v>62</v>
       </c>
       <c r="F35" s="44">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G35" s="123"/>
       <c r="H35" s="44">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I35" s="118"/>
       <c r="J35" s="38"/>
@@ -2928,13 +3012,13 @@
       <c r="L35" s="38"/>
       <c r="M35" s="124"/>
       <c r="N35" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="120">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P35" s="122">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -2952,7 +3036,7 @@
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:31">
       <c r="A36" s="116"/>
       <c r="B36" s="117"/>
       <c r="C36" s="41" t="s">
@@ -2965,25 +3049,25 @@
         <v>35</v>
       </c>
       <c r="F36" s="44">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="118"/>
       <c r="H36" s="44">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="118"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
       <c r="M36" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="121"/>
       <c r="O36" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="122">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -3001,7 +3085,7 @@
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:31">
       <c r="A37" s="116"/>
       <c r="B37" s="117"/>
       <c r="C37" s="41" t="s">
@@ -3014,25 +3098,25 @@
         <v>35</v>
       </c>
       <c r="F37" s="44">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G37" s="118"/>
       <c r="H37" s="46">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I37" s="118"/>
       <c r="J37" s="38"/>
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
       <c r="M37" s="120">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N37" s="121"/>
       <c r="O37" s="120">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P37" s="122">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -3050,7 +3134,7 @@
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:31">
       <c r="A38" s="116"/>
       <c r="B38" s="117"/>
       <c r="C38" s="41" t="s">
@@ -3063,23 +3147,23 @@
         <v>35</v>
       </c>
       <c r="F38" s="44">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="118"/>
       <c r="H38" s="46">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="118"/>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
       <c r="M38" s="120">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N38" s="121"/>
       <c r="O38" s="121"/>
       <c r="P38" s="122">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -3097,7 +3181,7 @@
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:31">
       <c r="A39" s="116"/>
       <c r="B39" s="117"/>
       <c r="C39" s="41" t="s">
@@ -3110,25 +3194,25 @@
         <v>35</v>
       </c>
       <c r="F39" s="44">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="118"/>
       <c r="H39" s="46">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I39" s="118"/>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
       <c r="M39" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="121"/>
       <c r="O39" s="120">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P39" s="122">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -3146,7 +3230,7 @@
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:31">
       <c r="A40" s="116"/>
       <c r="B40" s="117"/>
       <c r="C40" s="41" t="s">
@@ -3159,25 +3243,25 @@
         <v>35</v>
       </c>
       <c r="F40" s="44">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="118"/>
       <c r="H40" s="46">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I40" s="118"/>
       <c r="J40" s="38"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
       <c r="M40" s="120">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N40" s="121"/>
       <c r="O40" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="122">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
@@ -3195,7 +3279,7 @@
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:31">
       <c r="A41" s="116"/>
       <c r="B41" s="117"/>
       <c r="C41" s="41" t="s">
@@ -3208,25 +3292,25 @@
         <v>35</v>
       </c>
       <c r="F41" s="44">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="118"/>
       <c r="H41" s="46">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I41" s="118"/>
       <c r="J41" s="38"/>
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
       <c r="M41" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="121"/>
       <c r="O41" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="122">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
@@ -3244,7 +3328,7 @@
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:31">
       <c r="A42" s="116"/>
       <c r="B42" s="117"/>
       <c r="C42" s="41" t="s">
@@ -3257,11 +3341,11 @@
         <v>35</v>
       </c>
       <c r="F42" s="44">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G42" s="118"/>
       <c r="H42" s="46">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I42" s="118"/>
       <c r="J42" s="38"/>
@@ -3269,13 +3353,13 @@
       <c r="L42" s="38"/>
       <c r="M42" s="124"/>
       <c r="N42" s="120">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O42" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="122">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
@@ -3293,7 +3377,7 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:31">
       <c r="A43" s="126"/>
       <c r="B43" s="73" t="s">
         <v>55</v>
@@ -3303,12 +3387,12 @@
       <c r="E43" s="76"/>
       <c r="F43" s="94"/>
       <c r="G43" s="94">
-        <f>sum(F44:F46)</f>
+        <f>SUM(F44:F46)</f>
         <v>7</v>
       </c>
       <c r="H43" s="94"/>
       <c r="I43" s="78">
-        <f>sum(H44:H46)</f>
+        <f>SUM(H44:H46)</f>
         <v>6</v>
       </c>
       <c r="J43" s="38"/>
@@ -3334,7 +3418,7 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:31">
       <c r="A44" s="126"/>
       <c r="B44" s="117"/>
       <c r="C44" s="41" t="s">
@@ -3347,23 +3431,23 @@
         <v>1</v>
       </c>
       <c r="F44" s="44">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G44" s="118"/>
       <c r="H44" s="46">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I44" s="119"/>
       <c r="J44" s="38"/>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
       <c r="M44" s="120">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N44" s="121"/>
       <c r="O44" s="121"/>
       <c r="P44" s="122">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
@@ -3381,7 +3465,7 @@
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:31">
       <c r="A45" s="126"/>
       <c r="B45" s="117"/>
       <c r="C45" s="41" t="s">
@@ -3394,11 +3478,11 @@
         <v>35</v>
       </c>
       <c r="F45" s="44">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="118"/>
       <c r="H45" s="46">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="119"/>
       <c r="J45" s="38"/>
@@ -3406,11 +3490,11 @@
       <c r="L45" s="38"/>
       <c r="M45" s="121"/>
       <c r="N45" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="121"/>
       <c r="P45" s="122">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
@@ -3428,24 +3512,24 @@
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:31">
       <c r="A46" s="127"/>
       <c r="B46" s="117"/>
       <c r="C46" s="41" t="s">
         <v>72</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E46" s="43" t="s">
         <v>32</v>
       </c>
       <c r="F46" s="44">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G46" s="118"/>
       <c r="H46" s="46">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I46" s="119"/>
       <c r="J46" s="38"/>
@@ -3453,13 +3537,13 @@
       <c r="L46" s="38"/>
       <c r="M46" s="121"/>
       <c r="N46" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="120">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="122">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -3477,9 +3561,9 @@
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:31">
       <c r="A47" s="72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="73" t="s">
         <v>45</v>
@@ -3489,13 +3573,13 @@
       <c r="E47" s="76"/>
       <c r="F47" s="94"/>
       <c r="G47" s="94">
-        <f>sum(F48:F49)</f>
+        <f>SUM(F48:F49)</f>
         <v>6</v>
       </c>
       <c r="H47" s="128"/>
       <c r="I47" s="79">
-        <f>sum(H48:H49)</f>
-        <v>0</v>
+        <f>SUM(H48:H49)</f>
+        <v>3</v>
       </c>
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
@@ -3520,31 +3604,39 @@
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
     </row>
-    <row r="48">
-      <c r="A48" s="72"/>
+    <row r="48" spans="1:31">
+      <c r="A48" s="72" t="s">
+        <v>75</v>
+      </c>
       <c r="B48" s="80"/>
       <c r="C48" s="129" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D48" s="82" t="s">
         <v>64</v>
       </c>
       <c r="E48" s="83" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F48" s="84">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G48" s="130"/>
-      <c r="H48" s="131"/>
+      <c r="H48" s="131">
+        <v>2</v>
+      </c>
       <c r="I48" s="132"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
       <c r="M48" s="88"/>
       <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="133"/>
+      <c r="O48" s="133">
+        <v>2</v>
+      </c>
+      <c r="P48" s="133">
+        <v>2</v>
+      </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
@@ -3561,33 +3653,39 @@
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:31">
       <c r="A49" s="72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B49" s="80"/>
       <c r="C49" s="129" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="83" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="F49" s="84">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G49" s="130"/>
-      <c r="H49" s="134"/>
+      <c r="H49" s="134">
+        <v>1</v>
+      </c>
       <c r="I49" s="92"/>
       <c r="J49" s="38"/>
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
       <c r="M49" s="135"/>
       <c r="N49" s="135"/>
-      <c r="O49" s="135"/>
-      <c r="P49" s="136"/>
+      <c r="O49" s="91">
+        <v>1</v>
+      </c>
+      <c r="P49" s="91">
+        <v>1</v>
+      </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
@@ -3604,25 +3702,25 @@
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:31">
       <c r="A50" s="72" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B50" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="137"/>
+      <c r="C50" s="136"/>
       <c r="D50" s="112"/>
-      <c r="E50" s="138"/>
+      <c r="E50" s="137"/>
       <c r="F50" s="94"/>
       <c r="G50" s="94">
-        <f>sum(F51:F56)</f>
+        <f>SUM(F51:F56)</f>
         <v>13</v>
       </c>
-      <c r="H50" s="139"/>
+      <c r="H50" s="138"/>
       <c r="I50" s="95">
-        <f>sum(H51)</f>
-        <v>0</v>
+        <f>SUM(H51:H56)</f>
+        <v>3</v>
       </c>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
@@ -3647,33 +3745,37 @@
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
     </row>
-    <row r="51">
-      <c r="A51" s="72" t="s">
-        <v>50</v>
-      </c>
+    <row r="51" spans="1:31">
+      <c r="A51" s="72"/>
       <c r="B51" s="113"/>
       <c r="C51" s="129" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="83" t="s">
         <v>3</v>
       </c>
       <c r="F51" s="84">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G51" s="99"/>
-      <c r="H51" s="140"/>
+      <c r="H51" s="86">
+        <v>1</v>
+      </c>
       <c r="I51" s="87"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
       <c r="M51" s="114"/>
       <c r="N51" s="114"/>
-      <c r="O51" s="104"/>
-      <c r="P51" s="101"/>
+      <c r="O51" s="103">
+        <v>1</v>
+      </c>
+      <c r="P51" s="101">
+        <v>1</v>
+      </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
@@ -3690,11 +3792,11 @@
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:31">
       <c r="A52" s="72"/>
       <c r="B52" s="113"/>
       <c r="C52" s="129" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D52" s="82" t="s">
         <v>64</v>
@@ -3703,10 +3805,12 @@
         <v>32</v>
       </c>
       <c r="F52" s="84">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="99"/>
-      <c r="H52" s="140"/>
+      <c r="H52" s="86">
+        <v>0</v>
+      </c>
       <c r="I52" s="87"/>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
@@ -3731,31 +3835,37 @@
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:31">
       <c r="A53" s="72"/>
       <c r="B53" s="113"/>
       <c r="C53" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="82" t="s">
-        <v>81</v>
-      </c>
       <c r="E53" s="83" t="s">
         <v>1</v>
       </c>
       <c r="F53" s="84">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="99"/>
-      <c r="H53" s="140"/>
+      <c r="H53" s="86">
+        <v>2</v>
+      </c>
       <c r="I53" s="87"/>
       <c r="J53" s="38"/>
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
-      <c r="M53" s="114"/>
+      <c r="M53" s="103">
+        <v>2</v>
+      </c>
       <c r="N53" s="114"/>
       <c r="O53" s="104"/>
-      <c r="P53" s="101"/>
+      <c r="P53" s="101">
+        <v>2</v>
+      </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
@@ -3772,23 +3882,25 @@
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:31">
       <c r="A54" s="72"/>
       <c r="B54" s="113"/>
       <c r="C54" s="129" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="83" t="s">
         <v>3</v>
       </c>
       <c r="F54" s="84">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="99"/>
-      <c r="H54" s="140"/>
+      <c r="H54" s="86">
+        <v>0</v>
+      </c>
       <c r="I54" s="87"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
@@ -3813,11 +3925,11 @@
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:31">
       <c r="A55" s="72"/>
       <c r="B55" s="113"/>
       <c r="C55" s="129" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D55" s="82" t="s">
         <v>64</v>
@@ -3826,10 +3938,12 @@
         <v>35</v>
       </c>
       <c r="F55" s="84">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G55" s="99"/>
-      <c r="H55" s="140"/>
+      <c r="H55" s="86">
+        <v>0</v>
+      </c>
       <c r="I55" s="87"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
@@ -3854,15 +3968,15 @@
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:31">
       <c r="A56" s="72"/>
       <c r="B56" s="113"/>
       <c r="C56" s="129"/>
       <c r="D56" s="108"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="142"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="140"/>
       <c r="G56" s="99"/>
-      <c r="H56" s="140"/>
+      <c r="H56" s="141"/>
       <c r="I56" s="87"/>
       <c r="J56" s="38"/>
       <c r="K56" s="38"/>
@@ -3887,23 +4001,23 @@
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
     </row>
-    <row r="57">
-      <c r="A57" s="143"/>
-      <c r="B57" s="144" t="s">
+    <row r="57" spans="1:31">
+      <c r="A57" s="142"/>
+      <c r="B57" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="145"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="147"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="146"/>
       <c r="F57" s="128"/>
       <c r="G57" s="128">
-        <f>sum(F58:F60)</f>
+        <f>SUM(F58:F60)</f>
         <v>7</v>
       </c>
       <c r="H57" s="128"/>
       <c r="I57" s="79">
-        <f>sum(H60)</f>
-        <v>0</v>
+        <f>SUM(H58:H60)</f>
+        <v>10</v>
       </c>
       <c r="J57" s="38"/>
       <c r="K57" s="38"/>
@@ -3928,31 +4042,37 @@
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
     </row>
-    <row r="58">
-      <c r="A58" s="148"/>
-      <c r="B58" s="149"/>
-      <c r="C58" s="150" t="s">
+    <row r="58" spans="1:31">
+      <c r="A58" s="147"/>
+      <c r="B58" s="148"/>
+      <c r="C58" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="151" t="s">
+      <c r="D58" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="153">
-        <v>3.0</v>
-      </c>
-      <c r="G58" s="154"/>
-      <c r="H58" s="155"/>
+      <c r="E58" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="131">
+        <v>3</v>
+      </c>
+      <c r="G58" s="152"/>
+      <c r="H58" s="153">
+        <v>5</v>
+      </c>
       <c r="I58" s="132"/>
       <c r="J58" s="38"/>
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
-      <c r="M58" s="133"/>
-      <c r="N58" s="133"/>
+      <c r="M58" s="133">
+        <v>5</v>
+      </c>
+      <c r="N58" s="154"/>
       <c r="O58" s="88"/>
-      <c r="P58" s="133"/>
+      <c r="P58" s="133">
+        <v>5</v>
+      </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
@@ -3969,9 +4089,9 @@
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
     </row>
-    <row r="59">
-      <c r="A59" s="148"/>
-      <c r="B59" s="148"/>
+    <row r="59" spans="1:31">
+      <c r="A59" s="147"/>
+      <c r="B59" s="147"/>
       <c r="C59" s="129" t="s">
         <v>71</v>
       </c>
@@ -3982,18 +4102,26 @@
         <v>35</v>
       </c>
       <c r="F59" s="84">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G59" s="99"/>
-      <c r="H59" s="140"/>
+      <c r="H59" s="86">
+        <v>2</v>
+      </c>
       <c r="I59" s="87"/>
       <c r="J59" s="38"/>
       <c r="K59" s="38"/>
       <c r="L59" s="38"/>
       <c r="M59" s="109"/>
-      <c r="N59" s="109"/>
-      <c r="O59" s="102"/>
-      <c r="P59" s="109"/>
+      <c r="N59" s="101">
+        <v>1</v>
+      </c>
+      <c r="O59" s="101">
+        <v>1</v>
+      </c>
+      <c r="P59" s="101">
+        <v>2</v>
+      </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
@@ -4010,31 +4138,41 @@
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
     </row>
-    <row r="60">
-      <c r="A60" s="156"/>
-      <c r="B60" s="156"/>
-      <c r="C60" s="157" t="s">
+    <row r="60" spans="1:31">
+      <c r="A60" s="155"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="158" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="159" t="s">
+      <c r="D60" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="160">
-        <v>2.0</v>
-      </c>
-      <c r="G60" s="161"/>
-      <c r="H60" s="162"/>
+      <c r="F60" s="134">
+        <v>2</v>
+      </c>
+      <c r="G60" s="159"/>
+      <c r="H60" s="160">
+        <v>3</v>
+      </c>
       <c r="I60" s="92"/>
       <c r="J60" s="38"/>
       <c r="K60" s="38"/>
       <c r="L60" s="38"/>
-      <c r="M60" s="136"/>
-      <c r="N60" s="136"/>
-      <c r="O60" s="135"/>
-      <c r="P60" s="136"/>
+      <c r="M60" s="91">
+        <v>1</v>
+      </c>
+      <c r="N60" s="91">
+        <v>1</v>
+      </c>
+      <c r="O60" s="91">
+        <v>1</v>
+      </c>
+      <c r="P60" s="91">
+        <v>3</v>
+      </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
@@ -4051,24 +4189,24 @@
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:31">
       <c r="A61" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="163" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="164"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="166"/>
-      <c r="F61" s="139"/>
-      <c r="G61" s="139">
-        <f>sum(F62)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="139"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="138"/>
+      <c r="G61" s="138">
+        <f>SUM(F62:F63)</f>
+        <v>4</v>
+      </c>
+      <c r="H61" s="138"/>
       <c r="I61" s="95">
-        <f>sum(H62)</f>
+        <f>SUM(H62:H63)</f>
         <v>0</v>
       </c>
       <c r="J61" s="28"/>
@@ -4094,15 +4232,23 @@
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
     </row>
-    <row r="62">
-      <c r="A62" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="117"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="170"/>
+    <row r="62" spans="1:31">
+      <c r="A62" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="166"/>
+      <c r="C62" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="44">
+        <v>2</v>
+      </c>
       <c r="G62" s="118"/>
       <c r="H62" s="59"/>
       <c r="I62" s="119"/>
@@ -4112,7 +4258,7 @@
       <c r="M62" s="124"/>
       <c r="N62" s="121"/>
       <c r="O62" s="121"/>
-      <c r="P62" s="171"/>
+      <c r="P62" s="167"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
@@ -4129,33 +4275,33 @@
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:31">
       <c r="A63" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94">
-        <f>sum(F64)</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="94"/>
-      <c r="I63" s="78">
-        <f>sum(H64)</f>
-        <v>0</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B63" s="117"/>
+      <c r="C63" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="44">
+        <v>2</v>
+      </c>
+      <c r="G63" s="118"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="119"/>
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
-      <c r="M63" s="78"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="78"/>
+      <c r="M63" s="124"/>
+      <c r="N63" s="121"/>
+      <c r="O63" s="121"/>
+      <c r="P63" s="167"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
@@ -4172,25 +4318,33 @@
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:31">
       <c r="A64" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="172"/>
-      <c r="C64" s="173"/>
-      <c r="D64" s="174"/>
-      <c r="E64" s="175"/>
-      <c r="F64" s="176"/>
-      <c r="G64" s="177"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="178"/>
+      <c r="B64" s="143" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="144"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128">
+        <f>SUM(F65:F70)</f>
+        <v>16</v>
+      </c>
+      <c r="H64" s="128"/>
+      <c r="I64" s="79">
+        <f>SUM(H65:H70)</f>
+        <v>0</v>
+      </c>
       <c r="J64" s="38"/>
       <c r="K64" s="38"/>
       <c r="L64" s="38"/>
-      <c r="M64" s="179"/>
-      <c r="N64" s="179"/>
-      <c r="O64" s="179"/>
-      <c r="P64" s="180"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="79"/>
+      <c r="O64" s="79"/>
+      <c r="P64" s="79"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
@@ -4207,31 +4361,31 @@
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
     </row>
-    <row r="65">
-      <c r="A65" s="126"/>
-      <c r="B65" s="163" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="181"/>
-      <c r="D65" s="182"/>
-      <c r="E65" s="183"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94">
-        <f>sum(G66)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="94"/>
-      <c r="I65" s="78">
-        <f>sum(H66)</f>
-        <v>0</v>
-      </c>
+    <row r="65" spans="1:31">
+      <c r="A65" s="168"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="170" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="171" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="172" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="173">
+        <v>3</v>
+      </c>
+      <c r="G65" s="174"/>
+      <c r="H65" s="175"/>
+      <c r="I65" s="176"/>
       <c r="J65" s="38"/>
       <c r="K65" s="38"/>
       <c r="L65" s="38"/>
-      <c r="M65" s="78"/>
-      <c r="N65" s="78"/>
-      <c r="O65" s="78"/>
-      <c r="P65" s="78"/>
+      <c r="M65" s="177"/>
+      <c r="N65" s="178"/>
+      <c r="O65" s="176"/>
+      <c r="P65" s="179"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
@@ -4248,23 +4402,31 @@
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
     </row>
-    <row r="66">
-      <c r="A66" s="126"/>
-      <c r="B66" s="117"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="168"/>
-      <c r="E66" s="169"/>
-      <c r="F66" s="170"/>
+    <row r="66" spans="1:31">
+      <c r="A66" s="168"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="44">
+        <v>2</v>
+      </c>
       <c r="G66" s="118"/>
       <c r="H66" s="59"/>
       <c r="I66" s="119"/>
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
       <c r="L66" s="38"/>
-      <c r="M66" s="120"/>
-      <c r="N66" s="121"/>
-      <c r="O66" s="121"/>
-      <c r="P66" s="171"/>
+      <c r="M66" s="121"/>
+      <c r="N66" s="180"/>
+      <c r="O66" s="119"/>
+      <c r="P66" s="181"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
@@ -4281,33 +4443,31 @@
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
     </row>
-    <row r="67">
-      <c r="A67" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="137"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="138"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94">
-        <f>sum(G68)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="94"/>
-      <c r="I67" s="78">
-        <f>sum(H68)</f>
-        <v>0</v>
-      </c>
+    <row r="67" spans="1:31">
+      <c r="A67" s="168"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="44">
+        <v>5</v>
+      </c>
+      <c r="G67" s="118"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="119"/>
       <c r="J67" s="38"/>
       <c r="K67" s="38"/>
       <c r="L67" s="38"/>
-      <c r="M67" s="78"/>
-      <c r="N67" s="78"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
+      <c r="M67" s="121"/>
+      <c r="N67" s="180"/>
+      <c r="O67" s="119"/>
+      <c r="P67" s="181"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
@@ -4324,25 +4484,31 @@
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
     </row>
-    <row r="68">
-      <c r="A68" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B68" s="80"/>
-      <c r="C68" s="184"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="141"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="132"/>
+    <row r="68" spans="1:31">
+      <c r="A68" s="168"/>
+      <c r="B68" s="166"/>
+      <c r="C68" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="44">
+        <v>1</v>
+      </c>
+      <c r="G68" s="118"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="119"/>
       <c r="J68" s="38"/>
       <c r="K68" s="38"/>
       <c r="L68" s="38"/>
-      <c r="M68" s="185"/>
-      <c r="N68" s="186"/>
-      <c r="O68" s="187"/>
-      <c r="P68" s="133"/>
+      <c r="M68" s="121"/>
+      <c r="N68" s="180"/>
+      <c r="O68" s="119"/>
+      <c r="P68" s="181"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
@@ -4359,33 +4525,23 @@
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
     </row>
-    <row r="69">
-      <c r="A69" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94">
-        <f>sum(G70)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="94"/>
-      <c r="I69" s="78">
-        <f>sum(H70)</f>
-        <v>0</v>
-      </c>
+    <row r="69" spans="1:31">
+      <c r="A69" s="168"/>
+      <c r="B69" s="166"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="182"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="119"/>
       <c r="J69" s="38"/>
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
-      <c r="M69" s="78"/>
-      <c r="N69" s="78"/>
-      <c r="O69" s="78"/>
-      <c r="P69" s="78"/>
+      <c r="M69" s="121"/>
+      <c r="N69" s="180"/>
+      <c r="O69" s="119"/>
+      <c r="P69" s="181"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
@@ -4402,25 +4558,31 @@
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
     </row>
-    <row r="70">
-      <c r="A70" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="113"/>
-      <c r="C70" s="184"/>
-      <c r="D70" s="108"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="142"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="87"/>
+    <row r="70" spans="1:31">
+      <c r="A70" s="168"/>
+      <c r="B70" s="183"/>
+      <c r="C70" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="66">
+        <v>5</v>
+      </c>
+      <c r="G70" s="184"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="185"/>
       <c r="J70" s="38"/>
       <c r="K70" s="38"/>
       <c r="L70" s="38"/>
-      <c r="M70" s="114"/>
-      <c r="N70" s="104"/>
-      <c r="O70" s="114"/>
-      <c r="P70" s="101"/>
+      <c r="M70" s="186"/>
+      <c r="N70" s="187"/>
+      <c r="O70" s="185"/>
+      <c r="P70" s="188"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
@@ -4437,31 +4599,31 @@
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
     </row>
-    <row r="71">
-      <c r="A71" s="143"/>
-      <c r="B71" s="73" t="s">
+    <row r="71" spans="1:31">
+      <c r="A71" s="126"/>
+      <c r="B71" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="74"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94">
-        <f>sum(G72)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="94"/>
-      <c r="I71" s="78">
-        <f>sum(H72)</f>
+      <c r="C71" s="189"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="191"/>
+      <c r="F71" s="138"/>
+      <c r="G71" s="138">
+        <f>SUM(F72:F74)</f>
+        <v>7</v>
+      </c>
+      <c r="H71" s="138"/>
+      <c r="I71" s="95">
+        <f>SUM(H72:H74)</f>
         <v>0</v>
       </c>
       <c r="J71" s="38"/>
       <c r="K71" s="38"/>
       <c r="L71" s="38"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78"/>
-      <c r="P71" s="78"/>
+      <c r="M71" s="95"/>
+      <c r="N71" s="95"/>
+      <c r="O71" s="95"/>
+      <c r="P71" s="95"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
@@ -4478,23 +4640,31 @@
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
     </row>
-    <row r="72">
-      <c r="A72" s="188"/>
-      <c r="B72" s="189"/>
-      <c r="C72" s="190"/>
-      <c r="D72" s="191"/>
-      <c r="E72" s="162"/>
-      <c r="F72" s="134"/>
-      <c r="G72" s="161"/>
-      <c r="H72" s="162"/>
-      <c r="I72" s="92"/>
+    <row r="72" spans="1:31">
+      <c r="A72" s="126"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="44">
+        <v>2</v>
+      </c>
+      <c r="G72" s="118"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="119"/>
       <c r="J72" s="38"/>
       <c r="K72" s="38"/>
       <c r="L72" s="38"/>
-      <c r="M72" s="192"/>
-      <c r="N72" s="193"/>
-      <c r="O72" s="194"/>
-      <c r="P72" s="136"/>
+      <c r="M72" s="120"/>
+      <c r="N72" s="121"/>
+      <c r="O72" s="121"/>
+      <c r="P72" s="167"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
@@ -4511,49 +4681,31 @@
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
     </row>
-    <row r="73">
-      <c r="A73" s="195" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="196"/>
-      <c r="C73" s="197"/>
-      <c r="D73" s="197"/>
-      <c r="E73" s="198"/>
-      <c r="F73" s="199">
-        <f t="shared" ref="F73:I73" si="1">sum(F5:F72)</f>
-        <v>125.5</v>
-      </c>
-      <c r="G73" s="199">
-        <f t="shared" si="1"/>
-        <v>125.5</v>
-      </c>
-      <c r="H73" s="199">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="I73" s="199">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="200">
-        <f t="shared" ref="M73:P73" si="2">SUM(M5:M72)</f>
-        <v>43</v>
-      </c>
-      <c r="N73" s="200">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="O73" s="200">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="P73" s="200">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
+    <row r="73" spans="1:31">
+      <c r="A73" s="126"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="44">
+        <v>3</v>
+      </c>
+      <c r="G73" s="118"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="119"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="120"/>
+      <c r="N73" s="121"/>
+      <c r="O73" s="121"/>
+      <c r="P73" s="167"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
@@ -4570,106 +4722,436 @@
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
     </row>
-    <row r="74">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="201"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="201"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="201"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
+    <row r="74" spans="1:31">
+      <c r="A74" s="126"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="44">
+        <v>2</v>
+      </c>
+      <c r="G74" s="118"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="119"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="120"/>
+      <c r="N74" s="121"/>
+      <c r="O74" s="121"/>
+      <c r="P74" s="167"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+    </row>
+    <row r="75" spans="1:31">
+      <c r="A75" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="136"/>
+      <c r="D75" s="112"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="94">
+        <f>SUM(G76)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="94"/>
+      <c r="I75" s="78">
+        <f>SUM(H76)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="78"/>
+      <c r="N75" s="78"/>
+      <c r="O75" s="78"/>
+      <c r="P75" s="78"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+    </row>
+    <row r="76" spans="1:31">
+      <c r="A76" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="80"/>
+      <c r="C76" s="192"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="139"/>
+      <c r="F76" s="140"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="141"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="193"/>
+      <c r="N76" s="194"/>
+      <c r="O76" s="195"/>
+      <c r="P76" s="154"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+    </row>
+    <row r="77" spans="1:31">
+      <c r="A77" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="74"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="94">
+        <f>SUM(G78)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="94"/>
+      <c r="I77" s="78">
+        <f>SUM(H78)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="78"/>
+      <c r="N77" s="78"/>
+      <c r="O77" s="78"/>
+      <c r="P77" s="78"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+    </row>
+    <row r="78" spans="1:31">
+      <c r="A78" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="113"/>
+      <c r="C78" s="192"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="139"/>
+      <c r="F78" s="140"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="141"/>
+      <c r="I78" s="87"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="104"/>
+      <c r="O78" s="114"/>
+      <c r="P78" s="101"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+    </row>
+    <row r="79" spans="1:31">
+      <c r="A79" s="142"/>
+      <c r="B79" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="74"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="94">
+        <f>SUM(G80)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="94"/>
+      <c r="I79" s="78">
+        <f>SUM(H80)</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="78"/>
+      <c r="N79" s="78"/>
+      <c r="O79" s="78"/>
+      <c r="P79" s="78"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+    </row>
+    <row r="80" spans="1:31">
+      <c r="A80" s="196"/>
+      <c r="B80" s="197"/>
+      <c r="C80" s="198"/>
+      <c r="D80" s="199"/>
+      <c r="E80" s="200"/>
+      <c r="F80" s="201"/>
+      <c r="G80" s="159"/>
+      <c r="H80" s="200"/>
+      <c r="I80" s="92"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="202"/>
+      <c r="N80" s="203"/>
+      <c r="O80" s="204"/>
+      <c r="P80" s="205"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+    </row>
+    <row r="81" spans="1:31">
+      <c r="A81" s="206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="207"/>
+      <c r="C81" s="208"/>
+      <c r="D81" s="208"/>
+      <c r="E81" s="209"/>
+      <c r="F81" s="210">
+        <f t="shared" ref="F81:I81" si="0">SUM(F5:F80)</f>
+        <v>152.5</v>
+      </c>
+      <c r="G81" s="210">
+        <f t="shared" si="0"/>
+        <v>152.5</v>
+      </c>
+      <c r="H81" s="210">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="I81" s="210">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="211">
+        <f t="shared" ref="M81:P81" si="1">SUM(M5:M80)</f>
+        <v>52</v>
+      </c>
+      <c r="N81" s="211">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="O81" s="211">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="P81" s="211">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+    </row>
+    <row r="82" spans="1:31" ht="12.75">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="212"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+    </row>
+    <row r="83" spans="1:31" ht="12.75">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="212"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+    </row>
+    <row r="84" spans="1:31" ht="12.75">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="212"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="4"/>
+      <c r="AE84" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Iteration Plans.xlsx
+++ b/Documentation/Iteration Plans.xlsx
@@ -1,34 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\CS451\CS451 Commerce Bank Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BADE3A7-96B9-409C-830A-30D036361205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="107">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -60,8 +43,14 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>(primary owner) 
-(secondary owners)</t>
+    <r>
+      <t xml:space="preserve">(primary owner) 
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>(secondary owners)</t>
+    </r>
   </si>
   <si>
     <t>By Task</t>
@@ -119,18 +108,24 @@
     <t>Project Charter</t>
   </si>
   <si>
+    <r>
+      <t>David</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>, Jonathan</t>
+    </r>
+  </si>
+  <si>
+    <t>Requirements Document</t>
+  </si>
+  <si>
+    <t>Project Manager, Requirements Engineer</t>
+  </si>
+  <si>
     <t>David, Jonathan</t>
   </si>
   <si>
-    <t>Requirements Document</t>
-  </si>
-  <si>
-    <t>Project Manager, Requirements Engineer</t>
-  </si>
-  <si>
-    <t>David, Jonathan</t>
-  </si>
-  <si>
     <t>Project Plan</t>
   </si>
   <si>
@@ -218,7 +213,13 @@
     <t>Create Database with Server (MySQL on UMKC Server)</t>
   </si>
   <si>
-    <t>Jonathan, Tarik</t>
+    <r>
+      <t xml:space="preserve">Jonathan, </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Tarik</t>
+    </r>
   </si>
   <si>
     <t>Create login</t>
@@ -263,7 +264,13 @@
     <t>Add multi account support</t>
   </si>
   <si>
-    <t>Jonathan, David</t>
+    <r>
+      <t xml:space="preserve">Jonathan, </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>David</t>
+    </r>
   </si>
   <si>
     <t>End: 10/28</t>
@@ -327,76 +334,109 @@
   </si>
   <si>
     <t>3 Weeks</t>
+  </si>
+  <si>
+    <t>Encrypt DB Sensitive Info</t>
+  </si>
+  <si>
+    <t>Hide sensitive info on site</t>
+  </si>
+  <si>
+    <t>Messages to confirm actions</t>
+  </si>
+  <si>
+    <t>Convert data table into pages</t>
+  </si>
+  <si>
+    <t>DB Event to archive report every month</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Bug Fixes</t>
+  </si>
+  <si>
+    <t>Finalize project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d-mmm"/>
+  </numFmts>
+  <fonts count="14">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF800000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -406,7 +446,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -440,43 +480,27 @@
     </fill>
   </fills>
   <borders count="16">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -488,39 +512,27 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -529,23 +541,16 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -555,20 +560,17 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -583,16 +585,11 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -601,630 +598,631 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="213">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="207">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="11" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="14" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="14" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="13" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1414,36 +1412,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" customWidth="1"/>
-    <col min="11" max="12" width="2.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="15.86"/>
+    <col customWidth="1" min="3" max="3" width="53.57"/>
+    <col customWidth="1" min="4" max="4" width="39.29"/>
+    <col customWidth="1" min="5" max="5" width="22.14"/>
+    <col customWidth="1" min="8" max="8" width="11.86"/>
+    <col customWidth="1" min="9" max="9" width="11.0"/>
+    <col customWidth="1" min="10" max="10" width="2.14"/>
+    <col customWidth="1" min="11" max="12" width="2.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1481,7 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1537,7 +1532,7 @@
       <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
     </row>
-    <row r="3" spans="1:31" ht="32.25" customHeight="1">
+    <row r="3" ht="32.25" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1586,7 +1581,7 @@
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
     </row>
-    <row r="4" spans="1:31" ht="22.5" customHeight="1">
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
@@ -1623,7 +1618,7 @@
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5">
       <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
@@ -1635,12 +1630,12 @@
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35">
-        <f>SUM(F6)</f>
+        <f>sum(F6)</f>
         <v>10</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="36">
-        <f>SUM(H6)</f>
+        <f>sum(H6)</f>
         <v>10</v>
       </c>
       <c r="J5" s="37"/>
@@ -1666,7 +1661,7 @@
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6">
       <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
@@ -1681,23 +1676,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="44">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="46">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
       <c r="M6" s="48">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="N6" s="49"/>
       <c r="O6" s="50"/>
       <c r="P6" s="51">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -1715,7 +1710,7 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
@@ -1727,12 +1722,12 @@
       <c r="E7" s="54"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55">
-        <f>SUM(F8:F10)</f>
+        <f>sum(F8:F10)</f>
         <v>7</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="39">
-        <f>SUM(H8:H10)</f>
+        <f>sum(H8:H10)</f>
         <v>6</v>
       </c>
       <c r="J7" s="38"/>
@@ -1758,7 +1753,7 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8">
       <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
@@ -1773,11 +1768,11 @@
         <v>3</v>
       </c>
       <c r="F8" s="44">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="46">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="38"/>
@@ -1786,10 +1781,10 @@
       <c r="M8" s="49"/>
       <c r="N8" s="49"/>
       <c r="O8" s="48">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P8" s="51">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -1807,7 +1802,7 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="41" t="s">
@@ -1820,11 +1815,11 @@
         <v>3</v>
       </c>
       <c r="F9" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="46">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I9" s="47"/>
       <c r="J9" s="38"/>
@@ -1833,10 +1828,10 @@
       <c r="M9" s="49"/>
       <c r="N9" s="49"/>
       <c r="O9" s="48">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P9" s="51">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1854,7 +1849,7 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="41" t="s">
@@ -1867,11 +1862,11 @@
         <v>3</v>
       </c>
       <c r="F10" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="46">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="I10" s="47"/>
       <c r="J10" s="38"/>
@@ -1880,10 +1875,10 @@
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="48">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="P10" s="51">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1901,7 +1896,7 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11">
       <c r="A11" s="40"/>
       <c r="B11" s="52" t="s">
         <v>27</v>
@@ -1911,13 +1906,13 @@
       <c r="E11" s="57"/>
       <c r="F11" s="55"/>
       <c r="G11" s="55">
-        <f>SUM(F12:F19)</f>
+        <f>sum(F12:F19)</f>
         <v>24.5</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="39">
-        <f>SUM(H12:H19)</f>
-        <v>18</v>
+        <f>sum(H12:H19)</f>
+        <v>22</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -1942,10 +1937,10 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12">
       <c r="A12" s="40"/>
       <c r="B12" s="58">
-        <v>43728</v>
+        <v>43728.0</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>28</v>
@@ -1957,27 +1952,27 @@
         <v>29</v>
       </c>
       <c r="F12" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="46">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="I12" s="47"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="48">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N12" s="48">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O12" s="48">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P12" s="51">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -1995,10 +1990,10 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13">
       <c r="A13" s="40"/>
       <c r="B13" s="58">
-        <v>43731</v>
+        <v>43731.0</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>30</v>
@@ -2010,27 +2005,27 @@
         <v>32</v>
       </c>
       <c r="F13" s="44">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="46">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="I13" s="47"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="48">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N13" s="48">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O13" s="48">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P13" s="51">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -2048,10 +2043,10 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14">
       <c r="A14" s="40"/>
       <c r="B14" s="58">
-        <v>43735</v>
+        <v>43735.0</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>33</v>
@@ -2063,25 +2058,25 @@
         <v>35</v>
       </c>
       <c r="F14" s="44">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="48">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N14" s="48">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="O14" s="48"/>
       <c r="P14" s="51">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -2099,10 +2094,10 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15">
       <c r="A15" s="40"/>
       <c r="B15" s="58">
-        <v>43745</v>
+        <v>43745.0</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>36</v>
@@ -2114,25 +2109,25 @@
         <v>35</v>
       </c>
       <c r="F15" s="44">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="46">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="I15" s="47"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="48">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N15" s="48">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O15" s="50"/>
       <c r="P15" s="51">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -2150,10 +2145,10 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16">
       <c r="A16" s="40"/>
       <c r="B16" s="58">
-        <v>43766</v>
+        <v>43766.0</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>37</v>
@@ -2169,19 +2164,19 @@
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="46">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I16" s="47"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="48">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N16" s="49"/>
       <c r="O16" s="50"/>
       <c r="P16" s="51">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -2199,10 +2194,10 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17">
       <c r="A17" s="40"/>
       <c r="B17" s="58">
-        <v>43770</v>
+        <v>43770.0</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>38</v>
@@ -2211,21 +2206,27 @@
         <v>39</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="44">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G17" s="45"/>
-      <c r="H17" s="59"/>
+      <c r="H17" s="46">
+        <v>4.0</v>
+      </c>
       <c r="I17" s="47"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="49"/>
       <c r="N17" s="49"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="60"/>
+      <c r="O17" s="48">
+        <v>4.0</v>
+      </c>
+      <c r="P17" s="51">
+        <v>4.0</v>
+      </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -2242,10 +2243,10 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18">
       <c r="A18" s="40"/>
       <c r="B18" s="58">
-        <v>43791</v>
+        <v>43791.0</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>40</v>
@@ -2257,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="44">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="59"/>
@@ -2285,10 +2286,10 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19">
       <c r="A19" s="61"/>
       <c r="B19" s="62">
-        <v>43800</v>
+        <v>43800.0</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>42</v>
@@ -2300,7 +2301,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="66">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="67"/>
@@ -2328,7 +2329,7 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20">
       <c r="A20" s="72" t="s">
         <v>44</v>
       </c>
@@ -2340,12 +2341,12 @@
       <c r="E20" s="76"/>
       <c r="F20" s="77"/>
       <c r="G20" s="77">
-        <f>SUM(F21:F22)</f>
+        <f>sum(F21:F22)</f>
         <v>5</v>
       </c>
       <c r="H20" s="77"/>
       <c r="I20" s="78">
-        <f>SUM(H21:H22)</f>
+        <f>sum(H21:H22)</f>
         <v>6</v>
       </c>
       <c r="J20" s="38"/>
@@ -2371,7 +2372,7 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21">
       <c r="A21" s="72" t="s">
         <v>17</v>
       </c>
@@ -2386,11 +2387,11 @@
         <v>3</v>
       </c>
       <c r="F21" s="84">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G21" s="85"/>
       <c r="H21" s="86">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="I21" s="87"/>
       <c r="J21" s="38"/>
@@ -2398,13 +2399,13 @@
       <c r="L21" s="38"/>
       <c r="M21" s="88"/>
       <c r="N21" s="89">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O21" s="89">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P21" s="89">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -2422,7 +2423,7 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22">
       <c r="A22" s="72" t="s">
         <v>48</v>
       </c>
@@ -2437,23 +2438,23 @@
         <v>1</v>
       </c>
       <c r="F22" s="84">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G22" s="85"/>
       <c r="H22" s="86">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="I22" s="87"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="91">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N22" s="92"/>
       <c r="O22" s="92"/>
       <c r="P22" s="93">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -2471,7 +2472,7 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23">
       <c r="A23" s="72" t="s">
         <v>50</v>
       </c>
@@ -2483,12 +2484,12 @@
       <c r="E23" s="76"/>
       <c r="F23" s="94"/>
       <c r="G23" s="94">
-        <f>SUM(F24:F28)</f>
+        <f>sum(F24:F28)</f>
         <v>15</v>
       </c>
       <c r="H23" s="94"/>
       <c r="I23" s="78">
-        <f>SUM(H24:H28)</f>
+        <f>sum(H24:H28)</f>
         <v>17</v>
       </c>
       <c r="J23" s="38"/>
@@ -2514,7 +2515,7 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24">
       <c r="A24" s="72"/>
       <c r="B24" s="96"/>
       <c r="C24" s="81" t="s">
@@ -2527,23 +2528,23 @@
         <v>1</v>
       </c>
       <c r="F24" s="98">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G24" s="99"/>
       <c r="H24" s="82">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I24" s="100"/>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="101">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N24" s="102"/>
       <c r="O24" s="102"/>
       <c r="P24" s="101">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -2561,7 +2562,7 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25">
       <c r="A25" s="72"/>
       <c r="B25" s="96"/>
       <c r="C25" s="81" t="s">
@@ -2574,27 +2575,27 @@
         <v>35</v>
       </c>
       <c r="F25" s="98">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="G25" s="99"/>
       <c r="H25" s="82">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I25" s="100"/>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="103">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="N25" s="103">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="O25" s="103">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="P25" s="101">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -2612,7 +2613,7 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26">
       <c r="A26" s="72"/>
       <c r="B26" s="96"/>
       <c r="C26" s="81" t="s">
@@ -2625,11 +2626,11 @@
         <v>35</v>
       </c>
       <c r="F26" s="98">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G26" s="99"/>
       <c r="H26" s="82">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="I26" s="100"/>
       <c r="J26" s="38"/>
@@ -2637,13 +2638,13 @@
       <c r="L26" s="38"/>
       <c r="M26" s="104"/>
       <c r="N26" s="103">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O26" s="103">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P26" s="101">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -2661,7 +2662,7 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27">
       <c r="A27" s="72"/>
       <c r="B27" s="96"/>
       <c r="C27" s="81"/>
@@ -2694,7 +2695,7 @@
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28">
       <c r="A28" s="72"/>
       <c r="B28" s="96"/>
       <c r="C28" s="81"/>
@@ -2727,7 +2728,7 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29">
       <c r="A29" s="72"/>
       <c r="B29" s="110" t="s">
         <v>55</v>
@@ -2737,12 +2738,12 @@
       <c r="E29" s="112"/>
       <c r="F29" s="94"/>
       <c r="G29" s="94">
-        <f>SUM(F30:F31)</f>
+        <f>sum(F30:F31)</f>
         <v>3</v>
       </c>
       <c r="H29" s="94"/>
       <c r="I29" s="78">
-        <f>SUM(H30)</f>
+        <f>sum(H30)</f>
         <v>5</v>
       </c>
       <c r="J29" s="28"/>
@@ -2768,7 +2769,7 @@
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30">
       <c r="A30" s="72"/>
       <c r="B30" s="113"/>
       <c r="C30" s="81" t="s">
@@ -2781,23 +2782,23 @@
         <v>1</v>
       </c>
       <c r="F30" s="98">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="82">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="I30" s="87"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
       <c r="M30" s="103">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N30" s="104"/>
       <c r="O30" s="114"/>
       <c r="P30" s="101">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
@@ -2815,7 +2816,7 @@
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31">
       <c r="A31" s="115"/>
       <c r="B31" s="113"/>
       <c r="C31" s="81"/>
@@ -2848,7 +2849,7 @@
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32">
       <c r="A32" s="116" t="s">
         <v>57</v>
       </c>
@@ -2860,12 +2861,12 @@
       <c r="E32" s="76"/>
       <c r="F32" s="94"/>
       <c r="G32" s="94">
-        <f>SUM(F33)</f>
+        <f>sum(F33)</f>
         <v>1</v>
       </c>
       <c r="H32" s="94"/>
       <c r="I32" s="78">
-        <f>SUM(H33)</f>
+        <f>sum(H33)</f>
         <v>2</v>
       </c>
       <c r="J32" s="38"/>
@@ -2891,7 +2892,7 @@
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33">
       <c r="A33" s="116" t="s">
         <v>58</v>
       </c>
@@ -2906,25 +2907,25 @@
         <v>32</v>
       </c>
       <c r="F33" s="44">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G33" s="118"/>
       <c r="H33" s="46">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I33" s="119"/>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N33" s="121"/>
       <c r="O33" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P33" s="122">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -2942,7 +2943,7 @@
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34">
       <c r="A34" s="116" t="s">
         <v>60</v>
       </c>
@@ -2954,12 +2955,12 @@
       <c r="E34" s="76"/>
       <c r="F34" s="94"/>
       <c r="G34" s="94">
-        <f>SUM(F35:F42)</f>
+        <f>sum(F35:F42)</f>
         <v>27</v>
       </c>
       <c r="H34" s="94"/>
       <c r="I34" s="78">
-        <f>SUM(H34:H42)</f>
+        <f>sum(H34:H42)</f>
         <v>25</v>
       </c>
       <c r="J34" s="38"/>
@@ -2985,7 +2986,7 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35">
       <c r="A35" s="116" t="s">
         <v>50</v>
       </c>
@@ -3000,11 +3001,11 @@
         <v>62</v>
       </c>
       <c r="F35" s="44">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G35" s="123"/>
       <c r="H35" s="44">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="I35" s="118"/>
       <c r="J35" s="38"/>
@@ -3012,13 +3013,13 @@
       <c r="L35" s="38"/>
       <c r="M35" s="124"/>
       <c r="N35" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O35" s="120">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P35" s="122">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -3036,7 +3037,7 @@
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36">
       <c r="A36" s="116"/>
       <c r="B36" s="117"/>
       <c r="C36" s="41" t="s">
@@ -3049,25 +3050,25 @@
         <v>35</v>
       </c>
       <c r="F36" s="44">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G36" s="118"/>
       <c r="H36" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I36" s="118"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
       <c r="M36" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N36" s="121"/>
       <c r="O36" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P36" s="122">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -3085,7 +3086,7 @@
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37">
       <c r="A37" s="116"/>
       <c r="B37" s="117"/>
       <c r="C37" s="41" t="s">
@@ -3098,25 +3099,25 @@
         <v>35</v>
       </c>
       <c r="F37" s="44">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="G37" s="118"/>
       <c r="H37" s="46">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="I37" s="118"/>
       <c r="J37" s="38"/>
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
       <c r="M37" s="120">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N37" s="121"/>
       <c r="O37" s="120">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P37" s="122">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -3134,7 +3135,7 @@
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38">
       <c r="A38" s="116"/>
       <c r="B38" s="117"/>
       <c r="C38" s="41" t="s">
@@ -3147,23 +3148,23 @@
         <v>35</v>
       </c>
       <c r="F38" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G38" s="118"/>
       <c r="H38" s="46">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I38" s="118"/>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
       <c r="M38" s="120">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N38" s="121"/>
       <c r="O38" s="121"/>
       <c r="P38" s="122">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -3181,7 +3182,7 @@
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39">
       <c r="A39" s="116"/>
       <c r="B39" s="117"/>
       <c r="C39" s="41" t="s">
@@ -3194,25 +3195,25 @@
         <v>35</v>
       </c>
       <c r="F39" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G39" s="118"/>
       <c r="H39" s="46">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="I39" s="118"/>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
       <c r="M39" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N39" s="121"/>
       <c r="O39" s="120">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="P39" s="122">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -3230,7 +3231,7 @@
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40">
       <c r="A40" s="116"/>
       <c r="B40" s="117"/>
       <c r="C40" s="41" t="s">
@@ -3243,25 +3244,25 @@
         <v>35</v>
       </c>
       <c r="F40" s="44">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G40" s="118"/>
       <c r="H40" s="46">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="I40" s="118"/>
       <c r="J40" s="38"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
       <c r="M40" s="120">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N40" s="121"/>
       <c r="O40" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P40" s="122">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
@@ -3279,7 +3280,7 @@
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41">
       <c r="A41" s="116"/>
       <c r="B41" s="117"/>
       <c r="C41" s="41" t="s">
@@ -3292,25 +3293,25 @@
         <v>35</v>
       </c>
       <c r="F41" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G41" s="118"/>
       <c r="H41" s="46">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I41" s="118"/>
       <c r="J41" s="38"/>
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
       <c r="M41" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N41" s="121"/>
       <c r="O41" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P41" s="122">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
@@ -3328,7 +3329,7 @@
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42">
       <c r="A42" s="116"/>
       <c r="B42" s="117"/>
       <c r="C42" s="41" t="s">
@@ -3341,11 +3342,11 @@
         <v>35</v>
       </c>
       <c r="F42" s="44">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="G42" s="118"/>
       <c r="H42" s="46">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="I42" s="118"/>
       <c r="J42" s="38"/>
@@ -3353,13 +3354,13 @@
       <c r="L42" s="38"/>
       <c r="M42" s="124"/>
       <c r="N42" s="120">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="O42" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P42" s="122">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
@@ -3377,7 +3378,7 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43">
       <c r="A43" s="126"/>
       <c r="B43" s="73" t="s">
         <v>55</v>
@@ -3387,12 +3388,12 @@
       <c r="E43" s="76"/>
       <c r="F43" s="94"/>
       <c r="G43" s="94">
-        <f>SUM(F44:F46)</f>
+        <f>sum(F44:F46)</f>
         <v>7</v>
       </c>
       <c r="H43" s="94"/>
       <c r="I43" s="78">
-        <f>SUM(H44:H46)</f>
+        <f>sum(H44:H46)</f>
         <v>6</v>
       </c>
       <c r="J43" s="38"/>
@@ -3418,7 +3419,7 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44">
       <c r="A44" s="126"/>
       <c r="B44" s="117"/>
       <c r="C44" s="41" t="s">
@@ -3431,23 +3432,23 @@
         <v>1</v>
       </c>
       <c r="F44" s="44">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G44" s="118"/>
       <c r="H44" s="46">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="I44" s="119"/>
       <c r="J44" s="38"/>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
       <c r="M44" s="120">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N44" s="121"/>
       <c r="O44" s="121"/>
       <c r="P44" s="122">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
@@ -3465,7 +3466,7 @@
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45">
       <c r="A45" s="126"/>
       <c r="B45" s="117"/>
       <c r="C45" s="41" t="s">
@@ -3478,11 +3479,11 @@
         <v>35</v>
       </c>
       <c r="F45" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G45" s="118"/>
       <c r="H45" s="46">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I45" s="119"/>
       <c r="J45" s="38"/>
@@ -3490,11 +3491,11 @@
       <c r="L45" s="38"/>
       <c r="M45" s="121"/>
       <c r="N45" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O45" s="121"/>
       <c r="P45" s="122">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
@@ -3512,7 +3513,7 @@
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46">
       <c r="A46" s="127"/>
       <c r="B46" s="117"/>
       <c r="C46" s="41" t="s">
@@ -3525,11 +3526,11 @@
         <v>32</v>
       </c>
       <c r="F46" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G46" s="118"/>
       <c r="H46" s="46">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I46" s="119"/>
       <c r="J46" s="38"/>
@@ -3537,13 +3538,13 @@
       <c r="L46" s="38"/>
       <c r="M46" s="121"/>
       <c r="N46" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O46" s="120">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P46" s="122">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -3561,7 +3562,7 @@
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47">
       <c r="A47" s="72" t="s">
         <v>74</v>
       </c>
@@ -3573,12 +3574,12 @@
       <c r="E47" s="76"/>
       <c r="F47" s="94"/>
       <c r="G47" s="94">
-        <f>SUM(F48:F49)</f>
+        <f>sum(F48:F49)</f>
         <v>6</v>
       </c>
       <c r="H47" s="128"/>
       <c r="I47" s="79">
-        <f>SUM(H48:H49)</f>
+        <f>sum(H48:H49)</f>
         <v>3</v>
       </c>
       <c r="J47" s="38"/>
@@ -3604,7 +3605,7 @@
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48">
       <c r="A48" s="72" t="s">
         <v>75</v>
       </c>
@@ -3619,11 +3620,11 @@
         <v>77</v>
       </c>
       <c r="F48" s="84">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G48" s="130"/>
       <c r="H48" s="131">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I48" s="132"/>
       <c r="J48" s="38"/>
@@ -3632,10 +3633,10 @@
       <c r="M48" s="88"/>
       <c r="N48" s="88"/>
       <c r="O48" s="133">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P48" s="133">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
@@ -3653,7 +3654,7 @@
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49">
       <c r="A49" s="72" t="s">
         <v>78</v>
       </c>
@@ -3668,11 +3669,11 @@
         <v>81</v>
       </c>
       <c r="F49" s="84">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G49" s="130"/>
       <c r="H49" s="134">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I49" s="92"/>
       <c r="J49" s="38"/>
@@ -3681,10 +3682,10 @@
       <c r="M49" s="135"/>
       <c r="N49" s="135"/>
       <c r="O49" s="91">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P49" s="91">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
@@ -3702,7 +3703,7 @@
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50">
       <c r="A50" s="72" t="s">
         <v>50</v>
       </c>
@@ -3714,12 +3715,12 @@
       <c r="E50" s="137"/>
       <c r="F50" s="94"/>
       <c r="G50" s="94">
-        <f>SUM(F51:F56)</f>
+        <f>sum(F51:F56)</f>
         <v>13</v>
       </c>
       <c r="H50" s="138"/>
       <c r="I50" s="95">
-        <f>SUM(H51:H56)</f>
+        <f>sum(H51:H56)</f>
         <v>3</v>
       </c>
       <c r="J50" s="38"/>
@@ -3745,7 +3746,7 @@
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51">
       <c r="A51" s="72"/>
       <c r="B51" s="113"/>
       <c r="C51" s="129" t="s">
@@ -3758,11 +3759,11 @@
         <v>3</v>
       </c>
       <c r="F51" s="84">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G51" s="99"/>
       <c r="H51" s="86">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I51" s="87"/>
       <c r="J51" s="38"/>
@@ -3771,10 +3772,10 @@
       <c r="M51" s="114"/>
       <c r="N51" s="114"/>
       <c r="O51" s="103">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P51" s="101">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
@@ -3792,7 +3793,7 @@
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52">
       <c r="A52" s="72"/>
       <c r="B52" s="113"/>
       <c r="C52" s="129" t="s">
@@ -3805,11 +3806,11 @@
         <v>32</v>
       </c>
       <c r="F52" s="84">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G52" s="99"/>
       <c r="H52" s="86">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I52" s="87"/>
       <c r="J52" s="38"/>
@@ -3835,7 +3836,7 @@
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53">
       <c r="A53" s="72"/>
       <c r="B53" s="113"/>
       <c r="C53" s="129" t="s">
@@ -3848,23 +3849,23 @@
         <v>1</v>
       </c>
       <c r="F53" s="84">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G53" s="99"/>
       <c r="H53" s="86">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I53" s="87"/>
       <c r="J53" s="38"/>
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
       <c r="M53" s="103">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N53" s="114"/>
       <c r="O53" s="104"/>
       <c r="P53" s="101">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -3882,7 +3883,7 @@
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54">
       <c r="A54" s="72"/>
       <c r="B54" s="113"/>
       <c r="C54" s="129" t="s">
@@ -3895,11 +3896,11 @@
         <v>3</v>
       </c>
       <c r="F54" s="84">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G54" s="99"/>
       <c r="H54" s="86">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I54" s="87"/>
       <c r="J54" s="38"/>
@@ -3925,7 +3926,7 @@
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55">
       <c r="A55" s="72"/>
       <c r="B55" s="113"/>
       <c r="C55" s="129" t="s">
@@ -3938,11 +3939,11 @@
         <v>35</v>
       </c>
       <c r="F55" s="84">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="G55" s="99"/>
       <c r="H55" s="86">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I55" s="87"/>
       <c r="J55" s="38"/>
@@ -3968,7 +3969,7 @@
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56">
       <c r="A56" s="72"/>
       <c r="B56" s="113"/>
       <c r="C56" s="129"/>
@@ -4001,7 +4002,7 @@
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57">
       <c r="A57" s="142"/>
       <c r="B57" s="143" t="s">
         <v>55</v>
@@ -4011,12 +4012,12 @@
       <c r="E57" s="146"/>
       <c r="F57" s="128"/>
       <c r="G57" s="128">
-        <f>SUM(F58:F60)</f>
+        <f>sum(F58:F60)</f>
         <v>7</v>
       </c>
       <c r="H57" s="128"/>
       <c r="I57" s="79">
-        <f>SUM(H58:H60)</f>
+        <f>sum(H58:H60)</f>
         <v>10</v>
       </c>
       <c r="J57" s="38"/>
@@ -4042,7 +4043,7 @@
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58">
       <c r="A58" s="147"/>
       <c r="B58" s="148"/>
       <c r="C58" s="149" t="s">
@@ -4055,23 +4056,23 @@
         <v>1</v>
       </c>
       <c r="F58" s="131">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G58" s="152"/>
       <c r="H58" s="153">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="I58" s="132"/>
       <c r="J58" s="38"/>
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
       <c r="M58" s="133">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N58" s="154"/>
       <c r="O58" s="88"/>
       <c r="P58" s="133">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
@@ -4089,7 +4090,7 @@
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59">
       <c r="A59" s="147"/>
       <c r="B59" s="147"/>
       <c r="C59" s="129" t="s">
@@ -4102,11 +4103,11 @@
         <v>35</v>
       </c>
       <c r="F59" s="84">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G59" s="99"/>
       <c r="H59" s="86">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I59" s="87"/>
       <c r="J59" s="38"/>
@@ -4114,13 +4115,13 @@
       <c r="L59" s="38"/>
       <c r="M59" s="109"/>
       <c r="N59" s="101">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O59" s="101">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P59" s="101">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -4138,7 +4139,7 @@
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60">
       <c r="A60" s="155"/>
       <c r="B60" s="155"/>
       <c r="C60" s="156" t="s">
@@ -4151,27 +4152,27 @@
         <v>32</v>
       </c>
       <c r="F60" s="134">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G60" s="159"/>
       <c r="H60" s="160">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="I60" s="92"/>
       <c r="J60" s="38"/>
       <c r="K60" s="38"/>
       <c r="L60" s="38"/>
       <c r="M60" s="91">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N60" s="91">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O60" s="91">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P60" s="91">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -4189,7 +4190,7 @@
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61">
       <c r="A61" s="116" t="s">
         <v>88</v>
       </c>
@@ -4201,13 +4202,13 @@
       <c r="E61" s="164"/>
       <c r="F61" s="138"/>
       <c r="G61" s="138">
-        <f>SUM(F62:F63)</f>
+        <f>sum(F62:F63)</f>
         <v>4</v>
       </c>
       <c r="H61" s="138"/>
       <c r="I61" s="95">
-        <f>SUM(H62:H63)</f>
-        <v>0</v>
+        <f>sum(H62:H63)</f>
+        <v>5</v>
       </c>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
@@ -4232,7 +4233,7 @@
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62">
       <c r="A62" s="165" t="s">
         <v>89</v>
       </c>
@@ -4247,18 +4248,24 @@
         <v>3</v>
       </c>
       <c r="F62" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G62" s="118"/>
-      <c r="H62" s="59"/>
+      <c r="H62" s="46">
+        <v>2.0</v>
+      </c>
       <c r="I62" s="119"/>
       <c r="J62" s="38"/>
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
       <c r="M62" s="124"/>
       <c r="N62" s="121"/>
-      <c r="O62" s="121"/>
-      <c r="P62" s="167"/>
+      <c r="O62" s="120">
+        <v>2.0</v>
+      </c>
+      <c r="P62" s="122">
+        <v>2.0</v>
+      </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
@@ -4275,11 +4282,11 @@
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63">
       <c r="A63" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="117"/>
+      <c r="B63" s="166"/>
       <c r="C63" s="41" t="s">
         <v>92</v>
       </c>
@@ -4290,18 +4297,24 @@
         <v>81</v>
       </c>
       <c r="F63" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G63" s="118"/>
-      <c r="H63" s="59"/>
+      <c r="H63" s="46">
+        <v>3.0</v>
+      </c>
       <c r="I63" s="119"/>
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
       <c r="M63" s="124"/>
       <c r="N63" s="121"/>
-      <c r="O63" s="121"/>
-      <c r="P63" s="167"/>
+      <c r="O63" s="120">
+        <v>3.0</v>
+      </c>
+      <c r="P63" s="122">
+        <v>3.0</v>
+      </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
@@ -4318,7 +4331,7 @@
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64">
       <c r="A64" s="116" t="s">
         <v>50</v>
       </c>
@@ -4330,13 +4343,13 @@
       <c r="E64" s="146"/>
       <c r="F64" s="128"/>
       <c r="G64" s="128">
-        <f>SUM(F65:F70)</f>
+        <f>sum(F65:F70)</f>
         <v>16</v>
       </c>
       <c r="H64" s="128"/>
       <c r="I64" s="79">
-        <f>SUM(H65:H70)</f>
-        <v>0</v>
+        <f>sum(H65:H70)</f>
+        <v>10</v>
       </c>
       <c r="J64" s="38"/>
       <c r="K64" s="38"/>
@@ -4361,31 +4374,35 @@
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
     </row>
-    <row r="65" spans="1:31">
-      <c r="A65" s="168"/>
-      <c r="B65" s="169"/>
-      <c r="C65" s="170" t="s">
+    <row r="65">
+      <c r="A65" s="167"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="171" t="s">
+      <c r="D65" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="172" t="s">
+      <c r="E65" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="F65" s="173">
-        <v>3</v>
-      </c>
-      <c r="G65" s="174"/>
-      <c r="H65" s="175"/>
-      <c r="I65" s="176"/>
+      <c r="F65" s="172">
+        <v>3.0</v>
+      </c>
+      <c r="G65" s="173"/>
+      <c r="H65" s="174">
+        <v>0.0</v>
+      </c>
+      <c r="I65" s="175"/>
       <c r="J65" s="38"/>
       <c r="K65" s="38"/>
       <c r="L65" s="38"/>
-      <c r="M65" s="177"/>
-      <c r="N65" s="178"/>
-      <c r="O65" s="176"/>
-      <c r="P65" s="179"/>
+      <c r="M65" s="176">
+        <v>0.0</v>
+      </c>
+      <c r="N65" s="177"/>
+      <c r="O65" s="175"/>
+      <c r="P65" s="178"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
@@ -4402,8 +4419,8 @@
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
     </row>
-    <row r="66" spans="1:31">
-      <c r="A66" s="168"/>
+    <row r="66">
+      <c r="A66" s="167"/>
       <c r="B66" s="166"/>
       <c r="C66" s="41" t="s">
         <v>86</v>
@@ -4415,18 +4432,24 @@
         <v>3</v>
       </c>
       <c r="F66" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G66" s="118"/>
-      <c r="H66" s="59"/>
+      <c r="H66" s="46">
+        <v>2.0</v>
+      </c>
       <c r="I66" s="119"/>
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
       <c r="L66" s="38"/>
       <c r="M66" s="121"/>
-      <c r="N66" s="180"/>
-      <c r="O66" s="119"/>
-      <c r="P66" s="181"/>
+      <c r="N66" s="179"/>
+      <c r="O66" s="180">
+        <v>2.0</v>
+      </c>
+      <c r="P66" s="180">
+        <v>2.0</v>
+      </c>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
@@ -4443,8 +4466,8 @@
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
     </row>
-    <row r="67" spans="1:31">
-      <c r="A67" s="168"/>
+    <row r="67">
+      <c r="A67" s="167"/>
       <c r="B67" s="166"/>
       <c r="C67" s="41" t="s">
         <v>87</v>
@@ -4456,18 +4479,24 @@
         <v>35</v>
       </c>
       <c r="F67" s="44">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="G67" s="118"/>
-      <c r="H67" s="59"/>
+      <c r="H67" s="46">
+        <v>6.0</v>
+      </c>
       <c r="I67" s="119"/>
       <c r="J67" s="38"/>
       <c r="K67" s="38"/>
       <c r="L67" s="38"/>
       <c r="M67" s="121"/>
-      <c r="N67" s="180"/>
-      <c r="O67" s="119"/>
-      <c r="P67" s="181"/>
+      <c r="N67" s="179"/>
+      <c r="O67" s="180">
+        <v>6.0</v>
+      </c>
+      <c r="P67" s="180">
+        <v>6.0</v>
+      </c>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
@@ -4484,8 +4513,8 @@
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
     </row>
-    <row r="68" spans="1:31">
-      <c r="A68" s="168"/>
+    <row r="68">
+      <c r="A68" s="167"/>
       <c r="B68" s="166"/>
       <c r="C68" s="41" t="s">
         <v>93</v>
@@ -4497,18 +4526,24 @@
         <v>1</v>
       </c>
       <c r="F68" s="44">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G68" s="118"/>
-      <c r="H68" s="59"/>
+      <c r="H68" s="46">
+        <v>2.0</v>
+      </c>
       <c r="I68" s="119"/>
       <c r="J68" s="38"/>
       <c r="K68" s="38"/>
       <c r="L68" s="38"/>
-      <c r="M68" s="121"/>
-      <c r="N68" s="180"/>
+      <c r="M68" s="120">
+        <v>2.0</v>
+      </c>
+      <c r="N68" s="179"/>
       <c r="O68" s="119"/>
-      <c r="P68" s="181"/>
+      <c r="P68" s="180">
+        <v>2.0</v>
+      </c>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
@@ -4525,13 +4560,13 @@
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
     </row>
-    <row r="69" spans="1:31">
-      <c r="A69" s="168"/>
+    <row r="69">
+      <c r="A69" s="167"/>
       <c r="B69" s="166"/>
       <c r="C69" s="41"/>
       <c r="D69" s="42"/>
       <c r="E69" s="43"/>
-      <c r="F69" s="182"/>
+      <c r="F69" s="181"/>
       <c r="G69" s="118"/>
       <c r="H69" s="59"/>
       <c r="I69" s="119"/>
@@ -4539,9 +4574,9 @@
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
       <c r="M69" s="121"/>
-      <c r="N69" s="180"/>
+      <c r="N69" s="179"/>
       <c r="O69" s="119"/>
-      <c r="P69" s="181"/>
+      <c r="P69" s="182"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
@@ -4558,8 +4593,8 @@
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
     </row>
-    <row r="70" spans="1:31">
-      <c r="A70" s="168"/>
+    <row r="70">
+      <c r="A70" s="167"/>
       <c r="B70" s="183"/>
       <c r="C70" s="63" t="s">
         <v>94</v>
@@ -4571,7 +4606,7 @@
         <v>35</v>
       </c>
       <c r="F70" s="66">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="G70" s="184"/>
       <c r="H70" s="67"/>
@@ -4599,7 +4634,7 @@
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71">
       <c r="A71" s="126"/>
       <c r="B71" s="161" t="s">
         <v>55</v>
@@ -4609,13 +4644,13 @@
       <c r="E71" s="191"/>
       <c r="F71" s="138"/>
       <c r="G71" s="138">
-        <f>SUM(F72:F74)</f>
+        <f>sum(F72:F74)</f>
         <v>7</v>
       </c>
       <c r="H71" s="138"/>
       <c r="I71" s="95">
-        <f>SUM(H72:H74)</f>
-        <v>0</v>
+        <f>sum(H72:H74)</f>
+        <v>4</v>
       </c>
       <c r="J71" s="38"/>
       <c r="K71" s="38"/>
@@ -4640,7 +4675,7 @@
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72">
       <c r="A72" s="126"/>
       <c r="B72" s="117"/>
       <c r="C72" s="41" t="s">
@@ -4653,18 +4688,24 @@
         <v>1</v>
       </c>
       <c r="F72" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G72" s="118"/>
-      <c r="H72" s="59"/>
+      <c r="H72" s="46">
+        <v>1.0</v>
+      </c>
       <c r="I72" s="119"/>
       <c r="J72" s="38"/>
       <c r="K72" s="38"/>
       <c r="L72" s="38"/>
       <c r="M72" s="120"/>
       <c r="N72" s="121"/>
-      <c r="O72" s="121"/>
-      <c r="P72" s="167"/>
+      <c r="O72" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="P72" s="122">
+        <v>1.0</v>
+      </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
@@ -4681,7 +4722,7 @@
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73">
       <c r="A73" s="126"/>
       <c r="B73" s="117"/>
       <c r="C73" s="41" t="s">
@@ -4694,18 +4735,24 @@
         <v>35</v>
       </c>
       <c r="F73" s="44">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G73" s="118"/>
-      <c r="H73" s="59"/>
+      <c r="H73" s="46">
+        <v>2.0</v>
+      </c>
       <c r="I73" s="119"/>
       <c r="J73" s="38"/>
       <c r="K73" s="38"/>
       <c r="L73" s="38"/>
       <c r="M73" s="120"/>
       <c r="N73" s="121"/>
-      <c r="O73" s="121"/>
-      <c r="P73" s="167"/>
+      <c r="O73" s="120">
+        <v>2.0</v>
+      </c>
+      <c r="P73" s="122">
+        <v>2.0</v>
+      </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
@@ -4722,7 +4769,7 @@
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74">
       <c r="A74" s="126"/>
       <c r="B74" s="117"/>
       <c r="C74" s="41" t="s">
@@ -4735,18 +4782,24 @@
         <v>32</v>
       </c>
       <c r="F74" s="44">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G74" s="118"/>
-      <c r="H74" s="59"/>
+      <c r="H74" s="46">
+        <v>1.0</v>
+      </c>
       <c r="I74" s="119"/>
       <c r="J74" s="38"/>
       <c r="K74" s="38"/>
       <c r="L74" s="38"/>
       <c r="M74" s="120"/>
       <c r="N74" s="121"/>
-      <c r="O74" s="121"/>
-      <c r="P74" s="167"/>
+      <c r="O74" s="120">
+        <v>1.0</v>
+      </c>
+      <c r="P74" s="122">
+        <v>1.0</v>
+      </c>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
@@ -4763,7 +4816,7 @@
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75">
       <c r="A75" s="72" t="s">
         <v>96</v>
       </c>
@@ -4775,12 +4828,12 @@
       <c r="E75" s="137"/>
       <c r="F75" s="94"/>
       <c r="G75" s="94">
-        <f>SUM(G76)</f>
+        <f>sum(G76)</f>
         <v>0</v>
       </c>
       <c r="H75" s="94"/>
       <c r="I75" s="78">
-        <f>SUM(H76)</f>
+        <f>sum(H76)</f>
         <v>0</v>
       </c>
       <c r="J75" s="38"/>
@@ -4806,7 +4859,7 @@
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76">
       <c r="A76" s="72" t="s">
         <v>97</v>
       </c>
@@ -4841,7 +4894,7 @@
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77">
       <c r="A77" s="72" t="s">
         <v>20</v>
       </c>
@@ -4853,12 +4906,12 @@
       <c r="E77" s="76"/>
       <c r="F77" s="94"/>
       <c r="G77" s="94">
-        <f>SUM(G78)</f>
-        <v>0</v>
+        <f>sum(F78:F85)</f>
+        <v>20</v>
       </c>
       <c r="H77" s="94"/>
       <c r="I77" s="78">
-        <f>SUM(H78)</f>
+        <f>sum(H78:H85)</f>
         <v>0</v>
       </c>
       <c r="J77" s="38"/>
@@ -4884,15 +4937,23 @@
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78">
       <c r="A78" s="72" t="s">
         <v>98</v>
       </c>
       <c r="B78" s="113"/>
-      <c r="C78" s="192"/>
-      <c r="D78" s="108"/>
-      <c r="E78" s="139"/>
-      <c r="F78" s="140"/>
+      <c r="C78" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" s="84">
+        <v>1.0</v>
+      </c>
       <c r="G78" s="99"/>
       <c r="H78" s="141"/>
       <c r="I78" s="87"/>
@@ -4919,31 +4980,31 @@
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
     </row>
-    <row r="79" spans="1:31">
-      <c r="A79" s="142"/>
-      <c r="B79" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="74"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="94">
-        <f>SUM(G80)</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="94"/>
-      <c r="I79" s="78">
-        <f>SUM(H80)</f>
-        <v>0</v>
-      </c>
+    <row r="79">
+      <c r="A79" s="72"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="G79" s="99"/>
+      <c r="H79" s="141"/>
+      <c r="I79" s="87"/>
       <c r="J79" s="38"/>
       <c r="K79" s="38"/>
       <c r="L79" s="38"/>
-      <c r="M79" s="78"/>
-      <c r="N79" s="78"/>
-      <c r="O79" s="78"/>
-      <c r="P79" s="78"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="104"/>
+      <c r="O79" s="114"/>
+      <c r="P79" s="101"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
@@ -4960,23 +5021,31 @@
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
     </row>
-    <row r="80" spans="1:31">
-      <c r="A80" s="196"/>
-      <c r="B80" s="197"/>
-      <c r="C80" s="198"/>
-      <c r="D80" s="199"/>
-      <c r="E80" s="200"/>
-      <c r="F80" s="201"/>
-      <c r="G80" s="159"/>
-      <c r="H80" s="200"/>
-      <c r="I80" s="92"/>
+    <row r="80">
+      <c r="A80" s="72"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G80" s="99"/>
+      <c r="H80" s="141"/>
+      <c r="I80" s="87"/>
       <c r="J80" s="38"/>
       <c r="K80" s="38"/>
       <c r="L80" s="38"/>
-      <c r="M80" s="202"/>
-      <c r="N80" s="203"/>
-      <c r="O80" s="204"/>
-      <c r="P80" s="205"/>
+      <c r="M80" s="114"/>
+      <c r="N80" s="104"/>
+      <c r="O80" s="114"/>
+      <c r="P80" s="101"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
@@ -4993,49 +5062,31 @@
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
     </row>
-    <row r="81" spans="1:31">
-      <c r="A81" s="206" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="207"/>
-      <c r="C81" s="208"/>
-      <c r="D81" s="208"/>
-      <c r="E81" s="209"/>
-      <c r="F81" s="210">
-        <f t="shared" ref="F81:I81" si="0">SUM(F5:F80)</f>
-        <v>152.5</v>
-      </c>
-      <c r="G81" s="210">
-        <f t="shared" si="0"/>
-        <v>152.5</v>
-      </c>
-      <c r="H81" s="210">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="I81" s="210">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="211">
-        <f t="shared" ref="M81:P81" si="1">SUM(M5:M80)</f>
-        <v>52</v>
-      </c>
-      <c r="N81" s="211">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="O81" s="211">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="P81" s="211">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
+    <row r="81">
+      <c r="A81" s="72"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G81" s="99"/>
+      <c r="H81" s="141"/>
+      <c r="I81" s="87"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="114"/>
+      <c r="N81" s="104"/>
+      <c r="O81" s="114"/>
+      <c r="P81" s="101"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
@@ -5052,106 +5103,485 @@
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
     </row>
-    <row r="82" spans="1:31" ht="12.75">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="212"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-      <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
-      <c r="AD82" s="4"/>
-      <c r="AE82" s="4"/>
-    </row>
-    <row r="83" spans="1:31" ht="12.75">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="212"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
-      <c r="AE83" s="4"/>
-    </row>
-    <row r="84" spans="1:31" ht="12.75">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="212"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4"/>
-      <c r="AA84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
-      <c r="AE84" s="4"/>
+    <row r="82">
+      <c r="A82" s="72"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="84">
+        <v>4.0</v>
+      </c>
+      <c r="G82" s="99"/>
+      <c r="H82" s="141"/>
+      <c r="I82" s="87"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="114"/>
+      <c r="N82" s="104"/>
+      <c r="O82" s="114"/>
+      <c r="P82" s="101"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="72"/>
+      <c r="B83" s="113"/>
+      <c r="C83" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G83" s="99"/>
+      <c r="H83" s="141"/>
+      <c r="I83" s="87"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="114"/>
+      <c r="N83" s="104"/>
+      <c r="O83" s="114"/>
+      <c r="P83" s="101"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="72"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="192"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="139"/>
+      <c r="F84" s="140"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="141"/>
+      <c r="I84" s="87"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="114"/>
+      <c r="N84" s="104"/>
+      <c r="O84" s="114"/>
+      <c r="P84" s="101"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="72"/>
+      <c r="B85" s="113"/>
+      <c r="C85" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" s="84">
+        <v>6.0</v>
+      </c>
+      <c r="G85" s="99"/>
+      <c r="H85" s="141"/>
+      <c r="I85" s="87"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="114"/>
+      <c r="N85" s="104"/>
+      <c r="O85" s="114"/>
+      <c r="P85" s="101"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="142"/>
+      <c r="B86" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="94"/>
+      <c r="G86" s="94">
+        <f>sum(F87:F89)</f>
+        <v>10</v>
+      </c>
+      <c r="H86" s="94"/>
+      <c r="I86" s="78">
+        <f>sum(H87:H89)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="78"/>
+      <c r="N86" s="78"/>
+      <c r="O86" s="78"/>
+      <c r="P86" s="78"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="142"/>
+      <c r="B87" s="113"/>
+      <c r="C87" s="196" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G87" s="99"/>
+      <c r="H87" s="141"/>
+      <c r="I87" s="87"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="114"/>
+      <c r="N87" s="104"/>
+      <c r="O87" s="114"/>
+      <c r="P87" s="101"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="142"/>
+      <c r="B88" s="113"/>
+      <c r="C88" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="G88" s="99"/>
+      <c r="H88" s="141"/>
+      <c r="I88" s="87"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="104"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="101"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="197"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="196" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="198" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89" s="199">
+        <v>5.0</v>
+      </c>
+      <c r="G89" s="99"/>
+      <c r="H89" s="141"/>
+      <c r="I89" s="87"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="114"/>
+      <c r="N89" s="104"/>
+      <c r="O89" s="114"/>
+      <c r="P89" s="101"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="201"/>
+      <c r="C90" s="202"/>
+      <c r="D90" s="202"/>
+      <c r="E90" s="203"/>
+      <c r="F90" s="204">
+        <f t="shared" ref="F90:I90" si="1">sum(F5:F89)</f>
+        <v>182.5</v>
+      </c>
+      <c r="G90" s="204">
+        <f t="shared" si="1"/>
+        <v>182.5</v>
+      </c>
+      <c r="H90" s="204">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="I90" s="204">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="205">
+        <f t="shared" ref="M90:P90" si="2">SUM(M5:M89)</f>
+        <v>54</v>
+      </c>
+      <c r="N90" s="205">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="O90" s="205">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="P90" s="205">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="206"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+      <c r="AE91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="206"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4"/>
+      <c r="AE92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="206"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+      <c r="AD93" s="4"/>
+      <c r="AE93" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>